--- a/data_analyzed/miles_per_week/miles_per_week_trainings.xlsx
+++ b/data_analyzed/miles_per_week/miles_per_week_trainings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:BA46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,82 +441,262 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>A. McKendrick</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Alexis Rainey</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Andres</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Balduzzi</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Brad</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Brooke Hughes</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Burns</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>C. McKendrick</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Conklin</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Curley</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Daud</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>DeLeo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Diedrichsen</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Doyle</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>E. Lewis</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Espona</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Ferriolo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Forman</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Goblirsch</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Grawl</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Hackman</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Hartsch</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Higinbotham</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Holzman</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Hughes</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>LaCroix</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Larripa</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Longo</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Mak Dutch</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Marley Dutch</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>McCann</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>McConnell</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>McFadden</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>McGinley</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Morrison</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Myers</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Pla</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>R. Lewis</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Reilly</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Ricci</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Rodrigo</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Smyth</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Stewart</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Streib</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Struzynski</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Tollaksen</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Vivadelli</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Wasyliw</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Wilson</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Yanovich</t>
         </is>
       </c>
     </row>
@@ -524,1819 +704,4084 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>7.140000000000001</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
         <v>6.6277</v>
       </c>
-      <c r="C2" t="n">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
         <v>6.5611</v>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>3.1462</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>7.5218</v>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="n">
+        <v>7.011799999999999</v>
+      </c>
+      <c r="R2" t="n">
         <v>6.116300000000001</v>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="n">
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="n">
+        <v>2.0114</v>
+      </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="n">
+        <v>6.2706</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>6.655</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>7.5983</v>
+      </c>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="n">
         <v>6.618600000000001</v>
       </c>
-      <c r="K2" t="n">
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="n">
         <v>6.4816</v>
       </c>
-      <c r="L2" t="n">
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="n">
+        <v>6.8382</v>
+      </c>
+      <c r="AN2" t="n">
         <v>6.0694</v>
       </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="n">
+        <v>5.9784</v>
+      </c>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="n">
         <v>5.681</v>
       </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="n">
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="n">
+        <v>7.5865</v>
+      </c>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="n">
         <v>6.213200000000001</v>
       </c>
-      <c r="Q2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="n">
+        <v>3.6328</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>10.2687</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
         <v>9.3827</v>
       </c>
-      <c r="C3" t="n">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
         <v>8.5246</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>2.7261</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>10.0947</v>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="n">
+        <v>10.2795</v>
+      </c>
+      <c r="R3" t="n">
         <v>8.235099999999999</v>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="n">
+        <v>8.958400000000001</v>
+      </c>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="n">
+        <v>8.685700000000001</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>4.416600000000001</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>11.4385</v>
+      </c>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="n">
         <v>10.2898</v>
       </c>
-      <c r="K3" t="n">
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="n">
+        <v>6.5563</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="n">
         <v>9.696899999999999</v>
       </c>
-      <c r="L3" t="n">
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="n">
+        <v>8.5435</v>
+      </c>
+      <c r="AN3" t="n">
         <v>8.363099999999999</v>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="n">
+        <v>5.4207</v>
+      </c>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="n">
         <v>10.0582</v>
       </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="n">
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="n">
+        <v>10.4653</v>
+      </c>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="n">
         <v>9.362400000000001</v>
       </c>
-      <c r="Q3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="n">
+        <v>8.7578</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>7.965400000000001</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
         <v>10.1651</v>
       </c>
-      <c r="C4" t="n">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
         <v>9.893799999999999</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>5.5326</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>8.629300000000001</v>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="n">
+        <v>9.857099999999999</v>
+      </c>
+      <c r="R4" t="n">
         <v>7.380599999999999</v>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="n">
+        <v>10.4072</v>
+      </c>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="n">
+        <v>7.728300000000001</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>2.474</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>11.5188</v>
+      </c>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="n">
         <v>11.4817</v>
       </c>
-      <c r="K4" t="n">
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="n">
+        <v>7.6083</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="n">
         <v>11.9551</v>
       </c>
-      <c r="L4" t="n">
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="n">
+        <v>10.9681</v>
+      </c>
+      <c r="AN4" t="n">
         <v>9.1889</v>
       </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="n">
+        <v>6.585</v>
+      </c>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="n">
         <v>10.477</v>
       </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="n">
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="n">
+        <v>7.6491</v>
+      </c>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="n">
         <v>10.21</v>
       </c>
-      <c r="Q4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="n">
+        <v>4.0909</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>14.1101</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
         <v>11.8846</v>
       </c>
-      <c r="C5" t="n">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
         <v>4.7793</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>4.9094</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>10.8027</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="n">
+        <v>13.2694</v>
+      </c>
+      <c r="R5" t="n">
         <v>9.403499999999999</v>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="n">
+        <v>12.7836</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="n">
+        <v>8.8119</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>3.0438</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>12.4498</v>
+      </c>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="n">
         <v>10.0418</v>
       </c>
-      <c r="K5" t="n">
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="n">
+        <v>9.6021</v>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="n">
         <v>13.2265</v>
       </c>
-      <c r="L5" t="n">
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="n">
+        <v>8.183900000000001</v>
+      </c>
+      <c r="AN5" t="n">
         <v>12.0796</v>
       </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="n">
+        <v>7.688700000000001</v>
+      </c>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="n">
         <v>12.4831</v>
       </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="n">
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="n">
+        <v>6.0646</v>
+      </c>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="n">
+        <v>10.9323</v>
+      </c>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="n">
         <v>12.8492</v>
       </c>
-      <c r="Q5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>10.8676</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
         <v>9.6548</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>6.7017</v>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>5.6318</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>11.3884</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="n">
+        <v>10.6634</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6.7017</v>
+      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="n">
+        <v>8.3545</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="n">
+        <v>6.8154</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>6.3943</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>6.668200000000001</v>
+      </c>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="n">
         <v>10.8422</v>
       </c>
-      <c r="K6" t="n">
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="n">
+        <v>10.2531</v>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="n">
         <v>10.5087</v>
       </c>
-      <c r="L6" t="n">
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="n">
+        <v>10.6513</v>
+      </c>
+      <c r="AN6" t="n">
         <v>6.1813</v>
       </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="n">
+        <v>7.0492</v>
+      </c>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="n">
         <v>9.703900000000001</v>
       </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="n">
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="n">
+        <v>5.1932</v>
+      </c>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="n">
+        <v>1.3955</v>
+      </c>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="n">
         <v>9.6472</v>
       </c>
-      <c r="Q6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>4.3766</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
         <v>6.8598</v>
       </c>
-      <c r="C7" t="n">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
         <v>1.7127</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>3.5434</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="n">
+        <v>8.152100000000001</v>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="n">
+        <v>7.537</v>
+      </c>
+      <c r="R7" t="n">
         <v>7.9567</v>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="n">
+        <v>6.971</v>
+      </c>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="n">
+        <v>5.0368</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>5.0077</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>9.437799999999999</v>
+      </c>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="n">
         <v>8.7271</v>
       </c>
-      <c r="K7" t="n">
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="n">
+        <v>7.224</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="n">
         <v>9.551500000000001</v>
       </c>
-      <c r="L7" t="n">
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="n">
+        <v>5.1007</v>
+      </c>
+      <c r="AN7" t="n">
         <v>8.4602</v>
       </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="n">
+        <v>7.2029</v>
+      </c>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="n">
         <v>9.4566</v>
       </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="n">
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="n">
+        <v>4.5836</v>
+      </c>
+      <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="n">
+        <v>7.799399999999999</v>
+      </c>
+      <c r="AX7" t="inlineStr"/>
+      <c r="AY7" t="n">
         <v>8.301</v>
       </c>
-      <c r="Q7" t="inlineStr"/>
+      <c r="AZ7" t="inlineStr"/>
+      <c r="BA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>7.0146</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
         <v>6.7397</v>
       </c>
-      <c r="C8" t="n">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
         <v>6.1813</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>3.817</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="n">
+        <v>4.0477</v>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="n">
+        <v>7.3644</v>
+      </c>
+      <c r="R8" t="n">
         <v>3.8169</v>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="n">
+        <v>5.988300000000001</v>
+      </c>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="n">
+        <v>3.6843</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>6.4551</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>6.7424</v>
+      </c>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="n">
         <v>7.8036</v>
       </c>
-      <c r="K8" t="n">
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="n">
+        <v>3.6443</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="n">
         <v>7.3208</v>
       </c>
-      <c r="L8" t="n">
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="n">
+        <v>7.0501</v>
+      </c>
+      <c r="AN8" t="n">
         <v>6.307700000000001</v>
       </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="n">
+        <v>6.9758</v>
+      </c>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="n">
         <v>6.7156</v>
       </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="n">
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="n">
+        <v>3.5514</v>
+      </c>
+      <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="n">
+        <v>7.2646</v>
+      </c>
+      <c r="AX8" t="inlineStr"/>
+      <c r="AY8" t="n">
         <v>6.5266</v>
       </c>
-      <c r="Q8" t="inlineStr"/>
+      <c r="AZ8" t="inlineStr"/>
+      <c r="BA8" t="n">
+        <v>3.1328</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>9.205500000000001</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
         <v>9.957000000000001</v>
       </c>
-      <c r="C9" t="n">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
         <v>9.327199999999999</v>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>5.5842</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>12.4338</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="n">
+        <v>9.794499999999999</v>
+      </c>
+      <c r="R9" t="n">
         <v>11.2333</v>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="n">
+        <v>9.2943</v>
+      </c>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="n">
+        <v>6.7767</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>6.2032</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>7.2479</v>
+      </c>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="n">
         <v>10.0753</v>
       </c>
-      <c r="K9" t="n">
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="n">
+        <v>11.6003</v>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="n">
         <v>10.8064</v>
       </c>
-      <c r="L9" t="n">
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="n">
+        <v>10.211</v>
+      </c>
+      <c r="AN9" t="n">
         <v>8.1808</v>
       </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="n">
         <v>10.9587</v>
       </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="n">
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="n">
+        <v>5.4681</v>
+      </c>
+      <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="n">
+        <v>11.0929</v>
+      </c>
+      <c r="AX9" t="inlineStr"/>
+      <c r="AY9" t="n">
         <v>8.613</v>
       </c>
-      <c r="Q9" t="inlineStr"/>
+      <c r="AZ9" t="inlineStr"/>
+      <c r="BA9" t="n">
+        <v>5.9315</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>11.1149</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
         <v>12.233</v>
       </c>
-      <c r="C10" t="n">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
         <v>11.2458</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>5.2053</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="n">
+        <v>10.0248</v>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="n">
+        <v>10.285</v>
+      </c>
+      <c r="R10" t="n">
         <v>11.2337</v>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="n">
+        <v>11.0399</v>
+      </c>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="n">
+        <v>8.4048</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>10.7858</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>9.027200000000001</v>
+      </c>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="n">
         <v>12.6542</v>
       </c>
-      <c r="K10" t="n">
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="n">
+        <v>11.156</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="n">
         <v>11.8538</v>
       </c>
-      <c r="L10" t="n">
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="n">
+        <v>9.1084</v>
+      </c>
+      <c r="AN10" t="n">
         <v>10.827</v>
       </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="n">
+        <v>10.9238</v>
+      </c>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="n">
         <v>12.2913</v>
       </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="n">
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="n">
+        <v>5.7462</v>
+      </c>
+      <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="n">
+        <v>10.3742</v>
+      </c>
+      <c r="AX10" t="inlineStr"/>
+      <c r="AY10" t="n">
         <v>10.814</v>
       </c>
-      <c r="Q10" t="inlineStr"/>
+      <c r="AZ10" t="inlineStr"/>
+      <c r="BA10" t="n">
+        <v>8.1829</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>8.555400000000001</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
         <v>9.158000000000001</v>
       </c>
-      <c r="C11" t="n">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
         <v>8.1303</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>2.8527</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>6.458</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="n">
+        <v>5.6861</v>
+      </c>
+      <c r="R11" t="n">
         <v>5.934</v>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="n">
+        <v>8.108499999999999</v>
+      </c>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="n">
+        <v>5.277</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>4.2972</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>6.394600000000001</v>
+      </c>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="n">
         <v>9.473600000000001</v>
       </c>
-      <c r="K11" t="n">
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="n">
         <v>9.065899999999999</v>
       </c>
-      <c r="L11" t="n">
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="n">
         <v>6.849</v>
       </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="n">
+        <v>4.4863</v>
+      </c>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="n">
         <v>8.1996</v>
       </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="n">
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="n">
+        <v>3.9968</v>
+      </c>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="n">
+        <v>6.2137</v>
+      </c>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="n">
         <v>8.7615</v>
       </c>
-      <c r="Q11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr"/>
+      <c r="BA11" t="n">
+        <v>4.5724</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
         <v>4.2199</v>
       </c>
-      <c r="C12" t="n">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
         <v>4.6972</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>3.7094</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="n">
+        <v>4.7576</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="n">
+        <v>4.8398</v>
+      </c>
+      <c r="R12" t="n">
         <v>1.493</v>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="n">
+        <v>4.718500000000001</v>
+      </c>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="n">
         <v>2.9321</v>
       </c>
-      <c r="K12" t="n">
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="n">
+        <v>4.5718</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="n">
         <v>1.5093</v>
       </c>
-      <c r="L12" t="n">
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="n">
         <v>4.9776</v>
       </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="n">
         <v>2.7404</v>
       </c>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="n">
+      <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AU12" t="n">
+        <v>4.2242</v>
+      </c>
+      <c r="AV12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr"/>
+      <c r="AX12" t="inlineStr"/>
+      <c r="AY12" t="n">
         <v>4.6256</v>
       </c>
-      <c r="Q12" t="inlineStr"/>
+      <c r="AZ12" t="inlineStr"/>
+      <c r="BA12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
         <v>7.7469</v>
       </c>
-      <c r="C13" t="n">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
         <v>9.700200000000001</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>5.960100000000001</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>9.258800000000001</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="n">
+        <v>9.9488</v>
+      </c>
+      <c r="R13" t="n">
         <v>7.4258</v>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="n">
+        <v>5.0715</v>
+      </c>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="n">
         <v>10.3864</v>
       </c>
-      <c r="K13" t="n">
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="n">
+        <v>8.859500000000001</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="n">
         <v>9.792199999999999</v>
       </c>
-      <c r="L13" t="n">
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="n">
         <v>6.8926</v>
       </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="n">
         <v>7.9083</v>
       </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="n">
+      <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AU13" t="n">
+        <v>8.3765</v>
+      </c>
+      <c r="AV13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr"/>
+      <c r="AX13" t="inlineStr"/>
+      <c r="AY13" t="n">
         <v>8.0146</v>
       </c>
-      <c r="Q13" t="inlineStr"/>
+      <c r="AZ13" t="inlineStr"/>
+      <c r="BA13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
         <v>5.7131</v>
       </c>
-      <c r="C14" t="n">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
         <v>4.396</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>2.3232</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>4.7092</v>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="n">
+        <v>4.4986</v>
+      </c>
+      <c r="R14" t="n">
         <v>3.9473</v>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="n">
+        <v>4.0971</v>
+      </c>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="n">
         <v>4.7857</v>
       </c>
-      <c r="K14" t="n">
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="n">
+        <v>4.252</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="n">
         <v>3.5585</v>
       </c>
-      <c r="L14" t="n">
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="n">
         <v>4.3438</v>
       </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="n">
         <v>3.6373</v>
       </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="n">
+      <c r="AS14" t="inlineStr"/>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AU14" t="n">
+        <v>3.3046</v>
+      </c>
+      <c r="AV14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr"/>
+      <c r="AX14" t="inlineStr"/>
+      <c r="AY14" t="n">
         <v>4.5212</v>
       </c>
-      <c r="Q14" t="inlineStr"/>
+      <c r="AZ14" t="inlineStr"/>
+      <c r="BA14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="n">
         <v>3.4645</v>
       </c>
-      <c r="C15" t="n">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="n">
         <v>3.3848</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0.772</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="n">
+        <v>3.516</v>
+      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="n">
+        <v>3.3063</v>
+      </c>
+      <c r="R15" t="n">
         <v>0.8747</v>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="n">
+        <v>0.8917</v>
+      </c>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="n">
         <v>0.8851</v>
       </c>
-      <c r="K15" t="n">
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="n">
+        <v>3.0269</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="n">
         <v>3.4083</v>
       </c>
-      <c r="L15" t="n">
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="n">
         <v>2.8658</v>
       </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="n">
         <v>3.0877</v>
       </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="n">
+      <c r="AS15" t="inlineStr"/>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AU15" t="n">
+        <v>2.296</v>
+      </c>
+      <c r="AV15" t="inlineStr"/>
+      <c r="AW15" t="n">
+        <v>2.285</v>
+      </c>
+      <c r="AX15" t="inlineStr"/>
+      <c r="AY15" t="n">
         <v>2.2237</v>
       </c>
-      <c r="Q15" t="inlineStr"/>
+      <c r="AZ15" t="inlineStr"/>
+      <c r="BA15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
         <v>10.5977</v>
       </c>
-      <c r="C16" t="n">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="n">
         <v>9.0245</v>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>3.1119</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="n">
+        <v>6.9016</v>
+      </c>
+      <c r="R16" t="n">
         <v>10.5988</v>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="n">
+        <v>9.9373</v>
+      </c>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="n">
         <v>8.2522</v>
       </c>
-      <c r="K16" t="n">
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="n">
+        <v>9.973000000000001</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="n">
         <v>10.3819</v>
       </c>
-      <c r="L16" t="n">
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="n">
+        <v>4.2857</v>
+      </c>
+      <c r="AN16" t="n">
         <v>11.6173</v>
       </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="n">
         <v>9.6435</v>
       </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="n">
+      <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AU16" t="n">
+        <v>6.144200000000001</v>
+      </c>
+      <c r="AV16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr"/>
+      <c r="AX16" t="inlineStr"/>
+      <c r="AY16" t="n">
         <v>9.898099999999999</v>
       </c>
-      <c r="Q16" t="inlineStr"/>
+      <c r="AZ16" t="inlineStr"/>
+      <c r="BA16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="n">
         <v>11.2812</v>
       </c>
-      <c r="C17" t="n">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="n">
         <v>12.9129</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>6.2167</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="n">
+        <v>11.1381</v>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="n">
+        <v>8.0816</v>
+      </c>
+      <c r="R17" t="n">
         <v>11.3091</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="n">
+        <v>15.3252</v>
+      </c>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="n">
         <v>16.0725</v>
       </c>
-      <c r="K17" t="n">
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="n">
+        <v>14.6173</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="n">
         <v>16.8057</v>
       </c>
-      <c r="L17" t="n">
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="n">
+        <v>6.8179</v>
+      </c>
+      <c r="AN17" t="n">
         <v>13.32</v>
       </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="n">
         <v>16.6448</v>
       </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="n">
+      <c r="AS17" t="inlineStr"/>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AU17" t="n">
+        <v>3.8262</v>
+      </c>
+      <c r="AV17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr"/>
+      <c r="AX17" t="inlineStr"/>
+      <c r="AY17" t="n">
         <v>14.9593</v>
       </c>
-      <c r="Q17" t="inlineStr"/>
+      <c r="AZ17" t="inlineStr"/>
+      <c r="BA17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
         <v>10.4764</v>
       </c>
-      <c r="C18" t="n">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="n">
         <v>8.626200000000001</v>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>4.048</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="n">
+        <v>7.4894</v>
+      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="n">
+        <v>11.1825</v>
+      </c>
+      <c r="R18" t="n">
         <v>12.0708</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="n">
+        <v>5.9878</v>
+      </c>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="n">
         <v>10.2871</v>
       </c>
-      <c r="K18" t="n">
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="n">
+        <v>9.777000000000001</v>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="n">
         <v>7.8617</v>
       </c>
-      <c r="L18" t="n">
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="n">
         <v>9.690300000000001</v>
       </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="AO18" t="inlineStr"/>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
+      <c r="AR18" t="n">
         <v>9.4094</v>
       </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="n">
+      <c r="AS18" t="inlineStr"/>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AU18" t="n">
+        <v>5.8706</v>
+      </c>
+      <c r="AV18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr"/>
+      <c r="AX18" t="inlineStr"/>
+      <c r="AY18" t="n">
         <v>9.8329</v>
       </c>
-      <c r="Q18" t="inlineStr"/>
+      <c r="AZ18" t="inlineStr"/>
+      <c r="BA18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="n">
         <v>6.7228</v>
       </c>
-      <c r="C19" t="n">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
         <v>9.863300000000001</v>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>3.0668</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="n">
+        <v>9.891</v>
+      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="n">
+        <v>10.5562</v>
+      </c>
+      <c r="R19" t="n">
         <v>9.5867</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="n">
+        <v>8.649900000000001</v>
+      </c>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="n">
         <v>7.3937</v>
       </c>
-      <c r="K19" t="n">
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="n">
+        <v>6.8634</v>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="n">
         <v>8.038</v>
       </c>
-      <c r="L19" t="n">
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="n">
+        <v>4.019</v>
+      </c>
+      <c r="AN19" t="n">
         <v>6.488</v>
       </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="n">
         <v>3.8276</v>
       </c>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="n">
+      <c r="AS19" t="inlineStr"/>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AU19" t="n">
+        <v>4.6058</v>
+      </c>
+      <c r="AV19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr"/>
+      <c r="AX19" t="inlineStr"/>
+      <c r="AY19" t="n">
         <v>9.7346</v>
       </c>
-      <c r="Q19" t="inlineStr"/>
+      <c r="AZ19" t="inlineStr"/>
+      <c r="BA19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
         <v>8.289099999999999</v>
       </c>
-      <c r="C20" t="n">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
         <v>8.939399999999999</v>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1.8394</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="n">
+        <v>5.744300000000001</v>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="n">
+        <v>2.6852</v>
+      </c>
+      <c r="R20" t="n">
         <v>8.340199999999999</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="n">
+        <v>7.2893</v>
+      </c>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="n">
         <v>8.3995</v>
       </c>
-      <c r="K20" t="n">
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="n">
+        <v>8.989599999999999</v>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="n">
         <v>6.7925</v>
       </c>
-      <c r="L20" t="n">
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="n">
+        <v>6.5397</v>
+      </c>
+      <c r="AN20" t="n">
         <v>9.1427</v>
       </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="AO20" t="inlineStr"/>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="n">
         <v>4.9751</v>
       </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="n">
+      <c r="AS20" t="inlineStr"/>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AU20" t="n">
+        <v>6.7743</v>
+      </c>
+      <c r="AV20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr"/>
+      <c r="AX20" t="inlineStr"/>
+      <c r="AY20" t="n">
         <v>7.8757</v>
       </c>
-      <c r="Q20" t="inlineStr"/>
+      <c r="AZ20" t="inlineStr"/>
+      <c r="BA20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
         <v>9.787800000000001</v>
       </c>
-      <c r="C21" t="n">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="n">
         <v>4.5305</v>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>3.1177</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="n">
+        <v>14.4229</v>
+      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="n">
+        <v>9.2654</v>
+      </c>
+      <c r="R21" t="n">
         <v>14.033</v>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="n">
+        <v>10.2977</v>
+      </c>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="n">
         <v>11.8693</v>
       </c>
-      <c r="K21" t="n">
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="n">
+        <v>12.3383</v>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="n">
         <v>15.701</v>
       </c>
-      <c r="L21" t="n">
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="n">
+        <v>14.9789</v>
+      </c>
+      <c r="AN21" t="n">
         <v>11.7104</v>
       </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="AO21" t="inlineStr"/>
+      <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="n">
         <v>9.7852</v>
       </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="n">
+      <c r="AS21" t="inlineStr"/>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AU21" t="n">
+        <v>6.8528</v>
+      </c>
+      <c r="AV21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr"/>
+      <c r="AX21" t="inlineStr"/>
+      <c r="AY21" t="n">
         <v>14.9666</v>
       </c>
-      <c r="Q21" t="inlineStr"/>
+      <c r="AZ21" t="inlineStr"/>
+      <c r="BA21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
         <v>3.3713</v>
       </c>
-      <c r="C22" t="n">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="n">
         <v>2.6366</v>
       </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="n">
+        <v>3.1545</v>
+      </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="n">
+        <v>2.3146</v>
+      </c>
+      <c r="R22" t="n">
         <v>2.9967</v>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="n">
+        <v>0.1865</v>
+      </c>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="n">
         <v>3.638</v>
       </c>
-      <c r="K22" t="n">
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="n">
         <v>0.9867</v>
       </c>
-      <c r="L22" t="n">
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="n">
+        <v>3.7142</v>
+      </c>
+      <c r="AN22" t="n">
         <v>2.0885</v>
       </c>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="AO22" t="inlineStr"/>
+      <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="n">
         <v>3.1183</v>
       </c>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="n">
+      <c r="AS22" t="inlineStr"/>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AU22" t="n">
+        <v>2.7329</v>
+      </c>
+      <c r="AV22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr"/>
+      <c r="AX22" t="inlineStr"/>
+      <c r="AY22" t="n">
         <v>3.5361</v>
       </c>
-      <c r="Q22" t="inlineStr"/>
+      <c r="AZ22" t="inlineStr"/>
+      <c r="BA22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
         <v>5.6571</v>
       </c>
-      <c r="C23" t="n">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="n">
         <v>5.2825</v>
       </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="n">
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1.9809</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="n">
+        <v>8.1158</v>
+      </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="n">
+        <v>4.7056</v>
+      </c>
+      <c r="R23" t="n">
         <v>7.2017</v>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="n">
         <v>6.653700000000001</v>
       </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="n">
+        <v>4.6287</v>
+      </c>
+      <c r="AN23" t="n">
         <v>6.977499999999999</v>
       </c>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="AO23" t="inlineStr"/>
+      <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr"/>
+      <c r="AR23" t="n">
         <v>6.0904</v>
       </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="n">
+      <c r="AS23" t="inlineStr"/>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AU23" t="n">
+        <v>4.3469</v>
+      </c>
+      <c r="AV23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr"/>
+      <c r="AX23" t="inlineStr"/>
+      <c r="AY23" t="n">
         <v>7.643</v>
       </c>
-      <c r="Q23" t="inlineStr"/>
+      <c r="AZ23" t="inlineStr"/>
+      <c r="BA23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="n">
         <v>21.2431</v>
       </c>
-      <c r="C24" t="n">
-        <v>14.5435</v>
-      </c>
-      <c r="D24" t="n">
-        <v>12.7954</v>
-      </c>
-      <c r="E24" t="n">
-        <v>16.8684</v>
-      </c>
-      <c r="F24" t="n">
-        <v>17.8475</v>
-      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
+        <v>14.5435</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1.9388</v>
+      </c>
+      <c r="L24" t="n">
+        <v>14.8932</v>
+      </c>
+      <c r="M24" t="n">
+        <v>12.7954</v>
+      </c>
+      <c r="N24" t="n">
+        <v>16.8684</v>
+      </c>
+      <c r="O24" t="n">
+        <v>21.3497</v>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="n">
+        <v>17.3615</v>
+      </c>
+      <c r="R24" t="n">
+        <v>17.8475</v>
+      </c>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="n">
         <v>11.3246</v>
       </c>
-      <c r="I24" t="n">
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="n">
+        <v>4.4521</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>14.3612</v>
+      </c>
+      <c r="AB24" t="n">
         <v>15.1121</v>
       </c>
-      <c r="J24" t="n">
+      <c r="AC24" t="n">
+        <v>14.7747</v>
+      </c>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="n">
         <v>21.7286</v>
       </c>
-      <c r="K24" t="n">
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="n">
+        <v>21.936</v>
+      </c>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="n">
         <v>21.3568</v>
       </c>
-      <c r="L24" t="n">
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="n">
+        <v>19.6392</v>
+      </c>
+      <c r="AN24" t="n">
         <v>20.1451</v>
       </c>
-      <c r="M24" t="n">
+      <c r="AO24" t="inlineStr"/>
+      <c r="AP24" t="inlineStr"/>
+      <c r="AQ24" t="n">
         <v>18.6249</v>
       </c>
-      <c r="N24" t="n">
+      <c r="AR24" t="n">
         <v>16.3741</v>
       </c>
-      <c r="O24" t="n">
+      <c r="AS24" t="n">
         <v>6.7934</v>
       </c>
-      <c r="P24" t="n">
+      <c r="AT24" t="inlineStr"/>
+      <c r="AU24" t="n">
+        <v>2.0264</v>
+      </c>
+      <c r="AV24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr"/>
+      <c r="AX24" t="inlineStr"/>
+      <c r="AY24" t="n">
         <v>17.5267</v>
       </c>
-      <c r="Q24" t="inlineStr"/>
+      <c r="AZ24" t="inlineStr"/>
+      <c r="BA24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="n">
         <v>12.0806</v>
       </c>
-      <c r="C25" t="n">
-        <v>12.9216</v>
-      </c>
-      <c r="D25" t="n">
-        <v>11.853</v>
-      </c>
-      <c r="E25" t="n">
-        <v>11.0376</v>
-      </c>
-      <c r="F25" t="n">
-        <v>13.039</v>
-      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
+        <v>12.9216</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>12.5944</v>
+      </c>
+      <c r="M25" t="n">
+        <v>11.853</v>
+      </c>
+      <c r="N25" t="n">
+        <v>11.0376</v>
+      </c>
+      <c r="O25" t="n">
+        <v>12.8433</v>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="n">
+        <v>6.8781</v>
+      </c>
+      <c r="R25" t="n">
+        <v>13.039</v>
+      </c>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="n">
         <v>12.008</v>
       </c>
-      <c r="I25" t="n">
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="n">
+        <v>12.143</v>
+      </c>
+      <c r="AB25" t="n">
         <v>9.128</v>
       </c>
-      <c r="J25" t="n">
+      <c r="AC25" t="n">
+        <v>12.1145</v>
+      </c>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="n">
         <v>12.6307</v>
       </c>
-      <c r="K25" t="n">
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="n">
+        <v>12.5182</v>
+      </c>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="n">
         <v>10.1372</v>
       </c>
-      <c r="L25" t="n">
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="n">
+        <v>13.6421</v>
+      </c>
+      <c r="AN25" t="n">
         <v>11.0251</v>
       </c>
-      <c r="M25" t="n">
+      <c r="AO25" t="inlineStr"/>
+      <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="n">
         <v>12.5869</v>
       </c>
-      <c r="N25" t="n">
+      <c r="AR25" t="n">
         <v>12.3546</v>
       </c>
-      <c r="O25" t="n">
+      <c r="AS25" t="n">
         <v>13.5582</v>
       </c>
-      <c r="P25" t="n">
+      <c r="AT25" t="inlineStr"/>
+      <c r="AU25" t="inlineStr"/>
+      <c r="AV25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr"/>
+      <c r="AX25" t="inlineStr"/>
+      <c r="AY25" t="n">
         <v>11.7352</v>
       </c>
-      <c r="Q25" t="inlineStr"/>
+      <c r="AZ25" t="inlineStr"/>
+      <c r="BA25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="n">
         <v>1.6576</v>
       </c>
-      <c r="C26" t="n">
-        <v>3.7509</v>
-      </c>
-      <c r="D26" t="n">
-        <v>3.7856</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1.8333</v>
-      </c>
-      <c r="F26" t="n">
-        <v>3.6387</v>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
+        <v>3.7509</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>3.6266</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3.7856</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.8333</v>
+      </c>
+      <c r="O26" t="n">
+        <v>4.256</v>
+      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="n">
+        <v>3.4295</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3.6387</v>
+      </c>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="n">
         <v>3.3849</v>
       </c>
-      <c r="I26" t="n">
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="AB26" t="n">
         <v>4.338200000000001</v>
       </c>
-      <c r="J26" t="n">
+      <c r="AC26" t="n">
+        <v>3.5419</v>
+      </c>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="n">
         <v>3.6105</v>
       </c>
-      <c r="K26" t="n">
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="n">
+        <v>4.1326</v>
+      </c>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="n">
         <v>3.5479</v>
       </c>
-      <c r="L26" t="n">
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="n">
+        <v>3.567</v>
+      </c>
+      <c r="AN26" t="n">
         <v>3.4114</v>
       </c>
-      <c r="M26" t="n">
+      <c r="AO26" t="inlineStr"/>
+      <c r="AP26" t="inlineStr"/>
+      <c r="AQ26" t="n">
         <v>3.4006</v>
       </c>
-      <c r="N26" t="n">
+      <c r="AR26" t="n">
         <v>3.2909</v>
       </c>
-      <c r="O26" t="n">
+      <c r="AS26" t="n">
         <v>4.0578</v>
       </c>
-      <c r="P26" t="n">
+      <c r="AT26" t="inlineStr"/>
+      <c r="AU26" t="inlineStr"/>
+      <c r="AV26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr"/>
+      <c r="AX26" t="inlineStr"/>
+      <c r="AY26" t="n">
         <v>1.8235</v>
       </c>
-      <c r="Q26" t="inlineStr"/>
+      <c r="AZ26" t="inlineStr"/>
+      <c r="BA26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="n">
         <v>6.1825</v>
       </c>
-      <c r="C27" t="n">
-        <v>8.965399999999999</v>
-      </c>
-      <c r="D27" t="n">
-        <v>10.6119</v>
-      </c>
-      <c r="E27" t="n">
-        <v>10.0653</v>
-      </c>
-      <c r="F27" t="n">
-        <v>4.5833</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
+        <v>8.965399999999999</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>11.4216</v>
+      </c>
+      <c r="M27" t="n">
+        <v>10.6119</v>
+      </c>
+      <c r="N27" t="n">
+        <v>10.0653</v>
+      </c>
+      <c r="O27" t="n">
+        <v>8.544699999999999</v>
+      </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="n">
+        <v>6.4025</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4.5833</v>
+      </c>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="n">
         <v>10.4266</v>
       </c>
-      <c r="I27" t="n">
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="n">
+        <v>8.642299999999999</v>
+      </c>
+      <c r="AB27" t="n">
         <v>10.002</v>
       </c>
-      <c r="J27" t="n">
+      <c r="AC27" t="n">
+        <v>10.6116</v>
+      </c>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="n">
         <v>11.9429</v>
       </c>
-      <c r="K27" t="n">
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="n">
+        <v>8.617899999999999</v>
+      </c>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="n">
         <v>10.4876</v>
       </c>
-      <c r="L27" t="n">
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="n">
+        <v>10.1992</v>
+      </c>
+      <c r="AN27" t="n">
         <v>10.1842</v>
       </c>
-      <c r="M27" t="n">
+      <c r="AO27" t="inlineStr"/>
+      <c r="AP27" t="inlineStr"/>
+      <c r="AQ27" t="n">
         <v>6.6927</v>
       </c>
-      <c r="N27" t="n">
+      <c r="AR27" t="n">
         <v>8.734999999999999</v>
       </c>
-      <c r="O27" t="n">
+      <c r="AS27" t="n">
         <v>7.8514</v>
       </c>
-      <c r="P27" t="n">
+      <c r="AT27" t="inlineStr"/>
+      <c r="AU27" t="inlineStr"/>
+      <c r="AV27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr"/>
+      <c r="AX27" t="inlineStr"/>
+      <c r="AY27" t="n">
         <v>10.9081</v>
       </c>
-      <c r="Q27" t="inlineStr"/>
+      <c r="AZ27" t="inlineStr"/>
+      <c r="BA27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="n">
         <v>4.0779</v>
       </c>
-      <c r="C28" t="n">
-        <v>2.1774</v>
-      </c>
-      <c r="D28" t="n">
-        <v>3.588</v>
-      </c>
-      <c r="E28" t="n">
-        <v>4.1997</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2.1212</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
+        <v>2.1774</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>4.0139</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3.588</v>
+      </c>
+      <c r="N28" t="n">
+        <v>4.1997</v>
+      </c>
+      <c r="O28" t="n">
+        <v>3.0977</v>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="n">
+        <v>4.9405</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.1212</v>
+      </c>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="n">
         <v>5.164400000000001</v>
       </c>
-      <c r="I28" t="n">
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="n">
+        <v>3.1595</v>
+      </c>
+      <c r="AB28" t="n">
         <v>3.8843</v>
       </c>
-      <c r="J28" t="n">
+      <c r="AC28" t="n">
+        <v>2.9169</v>
+      </c>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="n">
         <v>4.3994</v>
       </c>
-      <c r="K28" t="n">
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="n">
+        <v>3.498</v>
+      </c>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="n">
         <v>3.6709</v>
       </c>
-      <c r="L28" t="n">
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="n">
+        <v>3.9581</v>
+      </c>
+      <c r="AN28" t="n">
         <v>3.8888</v>
       </c>
-      <c r="M28" t="n">
+      <c r="AO28" t="inlineStr"/>
+      <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="n">
         <v>3.661</v>
       </c>
-      <c r="N28" t="n">
+      <c r="AR28" t="n">
         <v>4.0933</v>
       </c>
-      <c r="O28" t="n">
+      <c r="AS28" t="n">
         <v>2.1976</v>
       </c>
-      <c r="P28" t="n">
+      <c r="AT28" t="inlineStr"/>
+      <c r="AU28" t="inlineStr"/>
+      <c r="AV28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr"/>
+      <c r="AX28" t="inlineStr"/>
+      <c r="AY28" t="n">
         <v>3.1758</v>
       </c>
-      <c r="Q28" t="inlineStr"/>
+      <c r="AZ28" t="inlineStr"/>
+      <c r="BA28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="n">
         <v>1.5335</v>
-      </c>
-      <c r="C29" t="n">
-        <v>5.1014</v>
-      </c>
-      <c r="D29" t="n">
-        <v>7.0844</v>
-      </c>
-      <c r="E29" t="n">
-        <v>7.0423</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
+        <v>5.1014</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1.4808</v>
+      </c>
+      <c r="M29" t="n">
+        <v>7.0844</v>
+      </c>
+      <c r="N29" t="n">
+        <v>7.0423</v>
+      </c>
+      <c r="O29" t="n">
+        <v>4.3446</v>
+      </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="n">
+        <v>4.3393</v>
+      </c>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="n">
         <v>4.7334</v>
       </c>
-      <c r="I29" t="n">
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="n">
+        <v>2.9406</v>
+      </c>
+      <c r="AB29" t="n">
         <v>7.8772</v>
       </c>
-      <c r="J29" t="n">
+      <c r="AC29" t="n">
+        <v>8.079599999999999</v>
+      </c>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="n">
         <v>8.741899999999999</v>
       </c>
-      <c r="K29" t="n">
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="n">
+        <v>3.3552</v>
+      </c>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="n">
         <v>7.6981</v>
       </c>
-      <c r="L29" t="n">
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="n">
+        <v>5.6028</v>
+      </c>
+      <c r="AN29" t="n">
         <v>7.2921</v>
       </c>
-      <c r="M29" t="n">
+      <c r="AO29" t="inlineStr"/>
+      <c r="AP29" t="inlineStr"/>
+      <c r="AQ29" t="n">
         <v>7.808</v>
       </c>
-      <c r="N29" t="n">
+      <c r="AR29" t="n">
         <v>7.1304</v>
       </c>
-      <c r="O29" t="n">
+      <c r="AS29" t="n">
         <v>8.144600000000001</v>
       </c>
-      <c r="P29" t="n">
+      <c r="AT29" t="inlineStr"/>
+      <c r="AU29" t="inlineStr"/>
+      <c r="AV29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr"/>
+      <c r="AX29" t="inlineStr"/>
+      <c r="AY29" t="n">
         <v>7.4332</v>
       </c>
-      <c r="Q29" t="inlineStr"/>
+      <c r="AZ29" t="inlineStr"/>
+      <c r="BA29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="n">
-        <v>3.3118</v>
-      </c>
-      <c r="D30" t="n">
-        <v>6.1214</v>
-      </c>
-      <c r="E30" t="n">
-        <v>6.9924</v>
-      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
+        <v>3.3118</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>7.9541</v>
+      </c>
+      <c r="M30" t="n">
+        <v>6.1214</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6.9924</v>
+      </c>
+      <c r="O30" t="n">
+        <v>3.9132</v>
+      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="n">
+        <v>5.3154</v>
+      </c>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="n">
         <v>7.7481</v>
       </c>
-      <c r="I30" t="n">
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="n">
+        <v>7.8411</v>
+      </c>
+      <c r="AB30" t="n">
         <v>4.1722</v>
       </c>
-      <c r="J30" t="n">
+      <c r="AC30" t="n">
+        <v>7.4131</v>
+      </c>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="n">
         <v>6.725099999999999</v>
       </c>
-      <c r="K30" t="n">
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="n">
+        <v>4.755</v>
+      </c>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="n">
         <v>7.7148</v>
       </c>
-      <c r="L30" t="n">
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="n">
+        <v>6.8177</v>
+      </c>
+      <c r="AN30" t="n">
         <v>6.8086</v>
       </c>
-      <c r="M30" t="n">
+      <c r="AO30" t="inlineStr"/>
+      <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="n">
         <v>8.424799999999999</v>
       </c>
-      <c r="N30" t="n">
+      <c r="AR30" t="n">
         <v>6.7563</v>
       </c>
-      <c r="O30" t="n">
+      <c r="AS30" t="n">
         <v>4.510899999999999</v>
       </c>
-      <c r="P30" t="n">
+      <c r="AT30" t="inlineStr"/>
+      <c r="AU30" t="inlineStr"/>
+      <c r="AV30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr"/>
+      <c r="AX30" t="inlineStr"/>
+      <c r="AY30" t="n">
         <v>7.057799999999999</v>
       </c>
-      <c r="Q30" t="inlineStr"/>
+      <c r="AZ30" t="inlineStr"/>
+      <c r="BA30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="n">
-        <v>5.9687</v>
-      </c>
-      <c r="D31" t="n">
-        <v>9.215999999999999</v>
-      </c>
-      <c r="E31" t="n">
-        <v>8.6456</v>
-      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
+        <v>5.9687</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>12.488</v>
+      </c>
+      <c r="M31" t="n">
+        <v>9.215999999999999</v>
+      </c>
+      <c r="N31" t="n">
+        <v>8.6456</v>
+      </c>
+      <c r="O31" t="n">
+        <v>9.2591</v>
+      </c>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="n">
+        <v>7.3571</v>
+      </c>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="n">
         <v>12.2296</v>
       </c>
-      <c r="I31" t="n">
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="n">
         <v>9.849500000000001</v>
       </c>
-      <c r="J31" t="n">
+      <c r="AC31" t="n">
+        <v>13.4216</v>
+      </c>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="n">
         <v>9.553000000000001</v>
       </c>
-      <c r="K31" t="n">
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="n">
+        <v>5.997</v>
+      </c>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="n">
         <v>7.8735</v>
       </c>
-      <c r="L31" t="n">
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="n">
+        <v>12.3346</v>
+      </c>
+      <c r="AN31" t="n">
         <v>11.3668</v>
       </c>
-      <c r="M31" t="n">
+      <c r="AO31" t="inlineStr"/>
+      <c r="AP31" t="inlineStr"/>
+      <c r="AQ31" t="n">
         <v>11.8207</v>
       </c>
-      <c r="N31" t="n">
+      <c r="AR31" t="n">
         <v>6.9871</v>
       </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="n">
+      <c r="AS31" t="inlineStr"/>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AU31" t="inlineStr"/>
+      <c r="AV31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr"/>
+      <c r="AX31" t="inlineStr"/>
+      <c r="AY31" t="n">
         <v>12.0803</v>
       </c>
-      <c r="Q31" t="inlineStr"/>
+      <c r="AZ31" t="inlineStr"/>
+      <c r="BA31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="n">
-        <v>2.4081</v>
-      </c>
-      <c r="D32" t="n">
-        <v>7.8803</v>
-      </c>
-      <c r="E32" t="n">
-        <v>4.4528</v>
-      </c>
-      <c r="F32" t="n">
-        <v>2.4569</v>
-      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
+        <v>2.4081</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>8.1828</v>
+      </c>
+      <c r="M32" t="n">
+        <v>7.8803</v>
+      </c>
+      <c r="N32" t="n">
+        <v>4.4528</v>
+      </c>
+      <c r="O32" t="n">
+        <v>4.4417</v>
+      </c>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="n">
+        <v>4.4268</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2.4569</v>
+      </c>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="n">
         <v>6.5992</v>
       </c>
-      <c r="I32" t="n">
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="n">
         <v>6.5716</v>
       </c>
-      <c r="J32" t="n">
+      <c r="AC32" t="n">
+        <v>8.5275</v>
+      </c>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="n">
         <v>6.6159</v>
       </c>
-      <c r="K32" t="n">
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="n">
+        <v>1.9994</v>
+      </c>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="n">
         <v>4.3278</v>
       </c>
-      <c r="L32" t="n">
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="n">
+        <v>3.3727</v>
+      </c>
+      <c r="AN32" t="n">
         <v>6.8761</v>
       </c>
-      <c r="M32" t="n">
+      <c r="AO32" t="inlineStr"/>
+      <c r="AP32" t="inlineStr"/>
+      <c r="AQ32" t="n">
         <v>8.1112</v>
       </c>
-      <c r="N32" t="n">
+      <c r="AR32" t="n">
         <v>7.8119</v>
       </c>
-      <c r="O32" t="n">
+      <c r="AS32" t="n">
         <v>8.6791</v>
       </c>
-      <c r="P32" t="n">
+      <c r="AT32" t="inlineStr"/>
+      <c r="AU32" t="inlineStr"/>
+      <c r="AV32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr"/>
+      <c r="AX32" t="inlineStr"/>
+      <c r="AY32" t="n">
         <v>7.3314</v>
       </c>
-      <c r="Q32" t="inlineStr"/>
+      <c r="AZ32" t="inlineStr"/>
+      <c r="BA32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="n">
-        <v>2.1128</v>
-      </c>
-      <c r="D33" t="n">
-        <v>5.9213</v>
-      </c>
-      <c r="E33" t="n">
-        <v>4.8154</v>
-      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
+        <v>2.1128</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>8.096500000000001</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5.9213</v>
+      </c>
+      <c r="N33" t="n">
+        <v>4.8154</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2.8879</v>
+      </c>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="n">
+        <v>4.7173</v>
+      </c>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="n">
         <v>7.6144</v>
       </c>
-      <c r="I33" t="n">
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="n">
         <v>3.3442</v>
       </c>
-      <c r="J33" t="n">
+      <c r="AC33" t="n">
+        <v>7.2215</v>
+      </c>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="n">
         <v>8.286300000000001</v>
       </c>
-      <c r="K33" t="n">
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="n">
+        <v>4.5227</v>
+      </c>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="n">
         <v>7.3835</v>
       </c>
-      <c r="L33" t="n">
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="n">
+        <v>5.2026</v>
+      </c>
+      <c r="AN33" t="n">
         <v>7.1689</v>
       </c>
-      <c r="M33" t="n">
+      <c r="AO33" t="inlineStr"/>
+      <c r="AP33" t="inlineStr"/>
+      <c r="AQ33" t="n">
         <v>7.0886</v>
       </c>
-      <c r="N33" t="n">
+      <c r="AR33" t="n">
         <v>5.8085</v>
       </c>
-      <c r="O33" t="n">
+      <c r="AS33" t="n">
         <v>3.5148</v>
       </c>
-      <c r="P33" t="n">
+      <c r="AT33" t="inlineStr"/>
+      <c r="AU33" t="inlineStr"/>
+      <c r="AV33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr"/>
+      <c r="AX33" t="inlineStr"/>
+      <c r="AY33" t="n">
         <v>5.0606</v>
       </c>
-      <c r="Q33" t="inlineStr"/>
+      <c r="AZ33" t="inlineStr"/>
+      <c r="BA33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B34" t="inlineStr"/>
-      <c r="C34" t="n">
-        <v>4.4653</v>
-      </c>
-      <c r="D34" t="n">
-        <v>8.744199999999999</v>
-      </c>
-      <c r="E34" t="n">
-        <v>7.6088</v>
-      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
+        <v>4.4653</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>9.3865</v>
+      </c>
+      <c r="M34" t="n">
+        <v>8.744199999999999</v>
+      </c>
+      <c r="N34" t="n">
+        <v>7.6088</v>
+      </c>
+      <c r="O34" t="n">
+        <v>7.1124</v>
+      </c>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="n">
+        <v>9.729699999999999</v>
+      </c>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="n">
         <v>5.5847</v>
       </c>
-      <c r="I34" t="n">
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="n">
         <v>5.109500000000001</v>
       </c>
-      <c r="J34" t="n">
+      <c r="AC34" t="n">
+        <v>8.7834</v>
+      </c>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="n">
         <v>6.8035</v>
       </c>
-      <c r="K34" t="n">
+      <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="n">
+        <v>8.9626</v>
+      </c>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="n">
         <v>5.3063</v>
       </c>
-      <c r="L34" t="n">
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="n">
+        <v>7.1192</v>
+      </c>
+      <c r="AN34" t="n">
         <v>8.122299999999999</v>
       </c>
-      <c r="M34" t="n">
+      <c r="AO34" t="inlineStr"/>
+      <c r="AP34" t="inlineStr"/>
+      <c r="AQ34" t="n">
         <v>9.7158</v>
       </c>
-      <c r="N34" t="n">
+      <c r="AR34" t="n">
         <v>8.146100000000001</v>
       </c>
-      <c r="O34" t="n">
+      <c r="AS34" t="n">
         <v>5.9875</v>
       </c>
-      <c r="P34" t="n">
+      <c r="AT34" t="inlineStr"/>
+      <c r="AU34" t="inlineStr"/>
+      <c r="AV34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr"/>
+      <c r="AX34" t="inlineStr"/>
+      <c r="AY34" t="n">
         <v>5.9852</v>
       </c>
-      <c r="Q34" t="inlineStr"/>
+      <c r="AZ34" t="inlineStr"/>
+      <c r="BA34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" t="n">
-        <v>3.3104</v>
-      </c>
-      <c r="D35" t="n">
-        <v>3.0105</v>
-      </c>
-      <c r="E35" t="n">
-        <v>3.0726</v>
-      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
+        <v>3.3104</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>6.7191</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3.0105</v>
+      </c>
+      <c r="N35" t="n">
+        <v>3.0726</v>
+      </c>
+      <c r="O35" t="n">
+        <v>2.9323</v>
+      </c>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="n">
+        <v>4.3086</v>
+      </c>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="n">
         <v>5.756600000000001</v>
       </c>
-      <c r="I35" t="n">
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="n">
         <v>2.6708</v>
       </c>
-      <c r="J35" t="n">
+      <c r="AC35" t="n">
+        <v>5.258</v>
+      </c>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="n">
         <v>6.2165</v>
       </c>
-      <c r="K35" t="n">
+      <c r="AH35" t="inlineStr"/>
+      <c r="AI35" t="n">
+        <v>3.0787</v>
+      </c>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="n">
         <v>6.6012</v>
       </c>
-      <c r="L35" t="n">
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="n">
+        <v>2.4621</v>
+      </c>
+      <c r="AN35" t="n">
         <v>3.8489</v>
       </c>
-      <c r="M35" t="n">
+      <c r="AO35" t="inlineStr"/>
+      <c r="AP35" t="inlineStr"/>
+      <c r="AQ35" t="n">
         <v>5.7832</v>
       </c>
-      <c r="N35" t="n">
+      <c r="AR35" t="n">
         <v>4.4687</v>
       </c>
-      <c r="O35" t="n">
+      <c r="AS35" t="n">
         <v>4.2116</v>
       </c>
-      <c r="P35" t="n">
+      <c r="AT35" t="inlineStr"/>
+      <c r="AU35" t="inlineStr"/>
+      <c r="AV35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr"/>
+      <c r="AX35" t="inlineStr"/>
+      <c r="AY35" t="n">
         <v>5.7927</v>
       </c>
-      <c r="Q35" t="inlineStr"/>
+      <c r="AZ35" t="inlineStr"/>
+      <c r="BA35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="n">
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="n">
         <v>1.826</v>
       </c>
-      <c r="D36" t="n">
-        <v>1.8501</v>
-      </c>
-      <c r="E36" t="n">
-        <v>1.8042</v>
-      </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="n">
-        <v>1.8007</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1.5267</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1.8261</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>1.9002</v>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
+        <v>1.8501</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.8042</v>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="n">
+        <v>1.8007</v>
+      </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="n">
+        <v>1.5267</v>
+      </c>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="n">
+        <v>1.8261</v>
+      </c>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="inlineStr"/>
+      <c r="AH36" t="inlineStr"/>
+      <c r="AI36" t="inlineStr"/>
+      <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="n">
+        <v>1.9002</v>
+      </c>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr"/>
+      <c r="AO36" t="inlineStr"/>
+      <c r="AP36" t="inlineStr"/>
+      <c r="AQ36" t="n">
         <v>1.9896</v>
       </c>
-      <c r="N36" t="n">
+      <c r="AR36" t="n">
         <v>1.9638</v>
       </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="n">
+      <c r="AS36" t="inlineStr"/>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AU36" t="inlineStr"/>
+      <c r="AV36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr"/>
+      <c r="AX36" t="inlineStr"/>
+      <c r="AY36" t="n">
         <v>1.9028</v>
       </c>
-      <c r="Q36" t="inlineStr"/>
+      <c r="AZ36" t="inlineStr"/>
+      <c r="BA36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="n">
         <v>2.7921</v>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="n">
-        <v>1.0871</v>
-      </c>
-      <c r="E37" t="n">
-        <v>2.9433</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1.4212</v>
-      </c>
-      <c r="G37" t="n">
-        <v>3.4064</v>
-      </c>
-      <c r="H37" t="n">
-        <v>3.614</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2.9042</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1.8521</v>
-      </c>
-      <c r="K37" t="n">
-        <v>1.1571</v>
-      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
+        <v>1.0871</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.9433</v>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="n">
+        <v>1.4212</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3.4064</v>
+      </c>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="n">
+        <v>3.614</v>
+      </c>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="n">
+        <v>2.9042</v>
+      </c>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="n">
+        <v>1.8521</v>
+      </c>
+      <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="inlineStr"/>
+      <c r="AJ37" t="inlineStr"/>
+      <c r="AK37" t="n">
+        <v>1.1571</v>
+      </c>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr"/>
+      <c r="AO37" t="inlineStr"/>
+      <c r="AP37" t="inlineStr"/>
+      <c r="AQ37" t="n">
         <v>2.9224</v>
       </c>
-      <c r="N37" t="n">
+      <c r="AR37" t="n">
         <v>2.4038</v>
       </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="n">
+      <c r="AS37" t="inlineStr"/>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AU37" t="inlineStr"/>
+      <c r="AV37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr"/>
+      <c r="AX37" t="inlineStr"/>
+      <c r="AY37" t="n">
         <v>2.8576</v>
       </c>
-      <c r="Q37" t="inlineStr"/>
+      <c r="AZ37" t="inlineStr"/>
+      <c r="BA37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B38" t="n">
-        <v>1.6325</v>
-      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
-        <v>1.8522</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1.9702</v>
-      </c>
-      <c r="G38" t="n">
-        <v>2.1907</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1.9505</v>
-      </c>
+        <v>1.6325</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>1.8689</v>
-      </c>
-      <c r="K38" t="n">
-        <v>1.7599</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
+        <v>1.8522</v>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="n">
+        <v>1.9702</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2.1907</v>
+      </c>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="n">
+        <v>1.9505</v>
+      </c>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="n">
+        <v>1.8689</v>
+      </c>
+      <c r="AH38" t="inlineStr"/>
+      <c r="AI38" t="inlineStr"/>
+      <c r="AJ38" t="inlineStr"/>
+      <c r="AK38" t="n">
+        <v>1.7599</v>
+      </c>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr"/>
+      <c r="AO38" t="inlineStr"/>
+      <c r="AP38" t="inlineStr"/>
+      <c r="AQ38" t="inlineStr"/>
+      <c r="AR38" t="n">
         <v>0.9257</v>
       </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="n">
+      <c r="AS38" t="inlineStr"/>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AU38" t="inlineStr"/>
+      <c r="AV38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr"/>
+      <c r="AX38" t="inlineStr"/>
+      <c r="AY38" t="n">
         <v>1.9133</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="AZ38" t="n">
         <v>1.4229</v>
       </c>
+      <c r="BA38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="n">
         <v>3.0727</v>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="n">
-        <v>5.7737</v>
-      </c>
-      <c r="E39" t="n">
-        <v>9.9191</v>
-      </c>
-      <c r="F39" t="n">
-        <v>8.106</v>
-      </c>
-      <c r="G39" t="n">
-        <v>10.3844</v>
-      </c>
-      <c r="H39" t="n">
-        <v>10.1696</v>
-      </c>
-      <c r="I39" t="n">
-        <v>6.411</v>
-      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>8.5921</v>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
+        <v>5.7737</v>
+      </c>
+      <c r="N39" t="n">
+        <v>9.9191</v>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="n">
+        <v>8.106</v>
+      </c>
+      <c r="S39" t="n">
+        <v>10.3844</v>
+      </c>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="n">
+        <v>10.1696</v>
+      </c>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="n">
+        <v>6.411</v>
+      </c>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr"/>
+      <c r="AI39" t="inlineStr"/>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="n">
+        <v>8.5921</v>
+      </c>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr"/>
+      <c r="AN39" t="inlineStr"/>
+      <c r="AO39" t="inlineStr"/>
+      <c r="AP39" t="inlineStr"/>
+      <c r="AQ39" t="n">
         <v>2.0468</v>
       </c>
-      <c r="N39" t="n">
+      <c r="AR39" t="n">
         <v>7.4884</v>
       </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="n">
+      <c r="AS39" t="inlineStr"/>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AU39" t="inlineStr"/>
+      <c r="AV39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr"/>
+      <c r="AX39" t="inlineStr"/>
+      <c r="AY39" t="n">
         <v>10.8204</v>
       </c>
-      <c r="Q39" t="inlineStr"/>
+      <c r="AZ39" t="inlineStr"/>
+      <c r="BA39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B40" t="n">
-        <v>1.4923</v>
-      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
+        <v>1.4923</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>11.8026</v>
       </c>
-      <c r="F40" t="n">
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="n">
         <v>9.517300000000001</v>
       </c>
-      <c r="G40" t="n">
+      <c r="S40" t="n">
         <v>3.7888</v>
       </c>
-      <c r="H40" t="n">
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="n">
         <v>11.625</v>
       </c>
-      <c r="I40" t="n">
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="n">
         <v>8.468299999999999</v>
       </c>
-      <c r="J40" t="n">
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr"/>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="n">
         <v>10.5395</v>
       </c>
-      <c r="K40" t="n">
+      <c r="AH40" t="inlineStr"/>
+      <c r="AI40" t="inlineStr"/>
+      <c r="AJ40" t="inlineStr"/>
+      <c r="AK40" t="n">
         <v>12.1437</v>
       </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="inlineStr"/>
+      <c r="AN40" t="inlineStr"/>
+      <c r="AO40" t="inlineStr"/>
+      <c r="AP40" t="inlineStr"/>
+      <c r="AQ40" t="n">
         <v>11.4998</v>
       </c>
-      <c r="N40" t="n">
+      <c r="AR40" t="n">
         <v>11.5394</v>
       </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="n">
+      <c r="AS40" t="inlineStr"/>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AU40" t="inlineStr"/>
+      <c r="AV40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr"/>
+      <c r="AX40" t="inlineStr"/>
+      <c r="AY40" t="n">
         <v>12.4039</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="AZ40" t="n">
         <v>1.3001</v>
       </c>
+      <c r="BA40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B41" t="n">
-        <v>4.9203</v>
-      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
+        <v>4.9203</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>10.9441</v>
       </c>
-      <c r="F41" t="n">
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="n">
         <v>9.5543</v>
       </c>
-      <c r="G41" t="n">
+      <c r="S41" t="n">
         <v>9.555400000000001</v>
       </c>
-      <c r="H41" t="n">
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="n">
         <v>10.9716</v>
       </c>
-      <c r="I41" t="n">
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="n">
         <v>11.9156</v>
       </c>
-      <c r="J41" t="n">
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr"/>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="n">
         <v>11.7135</v>
       </c>
-      <c r="K41" t="n">
+      <c r="AH41" t="inlineStr"/>
+      <c r="AI41" t="inlineStr"/>
+      <c r="AJ41" t="inlineStr"/>
+      <c r="AK41" t="n">
         <v>11.4638</v>
       </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="inlineStr"/>
+      <c r="AN41" t="inlineStr"/>
+      <c r="AO41" t="inlineStr"/>
+      <c r="AP41" t="inlineStr"/>
+      <c r="AQ41" t="n">
         <v>10.7726</v>
       </c>
-      <c r="N41" t="n">
+      <c r="AR41" t="n">
         <v>8.2835</v>
       </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="n">
+      <c r="AS41" t="inlineStr"/>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AU41" t="inlineStr"/>
+      <c r="AV41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr"/>
+      <c r="AX41" t="inlineStr"/>
+      <c r="AY41" t="n">
         <v>11.5569</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="AZ41" t="n">
         <v>0.6256</v>
       </c>
+      <c r="BA41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="n">
         <v>7.3267</v>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="n">
-        <v>8.794599999999999</v>
-      </c>
-      <c r="E42" t="n">
-        <v>10.5855</v>
-      </c>
-      <c r="F42" t="n">
-        <v>11.2359</v>
-      </c>
-      <c r="G42" t="n">
-        <v>11.0391</v>
-      </c>
-      <c r="H42" t="n">
-        <v>10.743</v>
-      </c>
-      <c r="I42" t="n">
-        <v>7.7967</v>
-      </c>
-      <c r="J42" t="n">
-        <v>7.5759</v>
-      </c>
-      <c r="K42" t="n">
-        <v>9.666599999999999</v>
-      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
+        <v>8.794599999999999</v>
+      </c>
+      <c r="N42" t="n">
+        <v>10.5855</v>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="n">
+        <v>11.2359</v>
+      </c>
+      <c r="S42" t="n">
+        <v>11.0391</v>
+      </c>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="n">
+        <v>10.743</v>
+      </c>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="n">
+        <v>7.7967</v>
+      </c>
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="inlineStr"/>
+      <c r="AF42" t="inlineStr"/>
+      <c r="AG42" t="n">
+        <v>7.5759</v>
+      </c>
+      <c r="AH42" t="inlineStr"/>
+      <c r="AI42" t="inlineStr"/>
+      <c r="AJ42" t="inlineStr"/>
+      <c r="AK42" t="n">
+        <v>9.666599999999999</v>
+      </c>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="inlineStr"/>
+      <c r="AN42" t="inlineStr"/>
+      <c r="AO42" t="inlineStr"/>
+      <c r="AP42" t="inlineStr"/>
+      <c r="AQ42" t="n">
         <v>10.511</v>
       </c>
-      <c r="N42" t="n">
+      <c r="AR42" t="n">
         <v>10.7876</v>
       </c>
-      <c r="O42" t="n">
+      <c r="AS42" t="n">
         <v>3.0486</v>
       </c>
-      <c r="P42" t="n">
+      <c r="AT42" t="inlineStr"/>
+      <c r="AU42" t="inlineStr"/>
+      <c r="AV42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr"/>
+      <c r="AX42" t="inlineStr"/>
+      <c r="AY42" t="n">
         <v>10.0593</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="AZ42" t="n">
         <v>1.7969</v>
       </c>
+      <c r="BA42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="n">
         <v>3.4732</v>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="n">
-        <v>8.7242</v>
-      </c>
-      <c r="E43" t="n">
-        <v>8.5419</v>
-      </c>
-      <c r="F43" t="n">
-        <v>5.7758</v>
-      </c>
-      <c r="G43" t="n">
-        <v>8.681900000000001</v>
-      </c>
-      <c r="H43" t="n">
-        <v>6.5959</v>
-      </c>
-      <c r="I43" t="n">
-        <v>8.052299999999999</v>
-      </c>
-      <c r="J43" t="n">
-        <v>8.212</v>
-      </c>
-      <c r="K43" t="n">
-        <v>7.9528</v>
-      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
+        <v>8.7242</v>
+      </c>
+      <c r="N43" t="n">
+        <v>8.5419</v>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="n">
+        <v>5.7758</v>
+      </c>
+      <c r="S43" t="n">
+        <v>8.681900000000001</v>
+      </c>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="n">
+        <v>6.5959</v>
+      </c>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="n">
+        <v>8.052299999999999</v>
+      </c>
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="inlineStr"/>
+      <c r="AF43" t="inlineStr"/>
+      <c r="AG43" t="n">
+        <v>8.212</v>
+      </c>
+      <c r="AH43" t="inlineStr"/>
+      <c r="AI43" t="inlineStr"/>
+      <c r="AJ43" t="inlineStr"/>
+      <c r="AK43" t="n">
+        <v>7.9528</v>
+      </c>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="inlineStr"/>
+      <c r="AN43" t="inlineStr"/>
+      <c r="AO43" t="inlineStr"/>
+      <c r="AP43" t="inlineStr"/>
+      <c r="AQ43" t="n">
         <v>8.7285</v>
       </c>
-      <c r="N43" t="n">
+      <c r="AR43" t="n">
         <v>5.735300000000001</v>
       </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="n">
+      <c r="AS43" t="inlineStr"/>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AU43" t="inlineStr"/>
+      <c r="AV43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr"/>
+      <c r="AX43" t="inlineStr"/>
+      <c r="AY43" t="n">
         <v>7.498</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="AZ43" t="n">
         <v>2.4681</v>
       </c>
+      <c r="BA43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="n">
         <v>6.6319</v>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="n">
-        <v>4.8398</v>
-      </c>
-      <c r="E44" t="n">
-        <v>7.891299999999999</v>
-      </c>
-      <c r="F44" t="n">
-        <v>5.0509</v>
-      </c>
-      <c r="G44" t="n">
-        <v>2.337</v>
-      </c>
-      <c r="H44" t="n">
-        <v>7.7536</v>
-      </c>
-      <c r="I44" t="n">
-        <v>8.368399999999999</v>
-      </c>
-      <c r="J44" t="n">
-        <v>5.5598</v>
-      </c>
-      <c r="K44" t="n">
-        <v>7.338200000000001</v>
-      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
+        <v>4.8398</v>
+      </c>
+      <c r="N44" t="n">
+        <v>7.891299999999999</v>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="n">
+        <v>5.0509</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2.337</v>
+      </c>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="n">
+        <v>7.7536</v>
+      </c>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="n">
+        <v>8.368399999999999</v>
+      </c>
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="inlineStr"/>
+      <c r="AF44" t="inlineStr"/>
+      <c r="AG44" t="n">
+        <v>5.5598</v>
+      </c>
+      <c r="AH44" t="inlineStr"/>
+      <c r="AI44" t="inlineStr"/>
+      <c r="AJ44" t="inlineStr"/>
+      <c r="AK44" t="n">
+        <v>7.338200000000001</v>
+      </c>
+      <c r="AL44" t="inlineStr"/>
+      <c r="AM44" t="inlineStr"/>
+      <c r="AN44" t="inlineStr"/>
+      <c r="AO44" t="inlineStr"/>
+      <c r="AP44" t="inlineStr"/>
+      <c r="AQ44" t="n">
         <v>8.489599999999999</v>
       </c>
-      <c r="N44" t="n">
+      <c r="AR44" t="n">
         <v>7.8899</v>
       </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="n">
+      <c r="AS44" t="inlineStr"/>
+      <c r="AT44" t="inlineStr"/>
+      <c r="AU44" t="inlineStr"/>
+      <c r="AV44" t="inlineStr"/>
+      <c r="AW44" t="inlineStr"/>
+      <c r="AX44" t="inlineStr"/>
+      <c r="AY44" t="n">
         <v>7.137099999999999</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="AZ44" t="n">
         <v>2.2872</v>
       </c>
+      <c r="BA44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B45" t="n">
+        <v>2.6063</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="n">
+        <v>2.989</v>
+      </c>
+      <c r="E45" t="n">
         <v>6.9799</v>
       </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="n">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>2.3713</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>6.4797</v>
-      </c>
-      <c r="F45" t="n">
-        <v>5.9216</v>
-      </c>
-      <c r="G45" t="n">
-        <v>2.6942</v>
-      </c>
-      <c r="H45" t="n">
-        <v>4.457</v>
-      </c>
-      <c r="I45" t="n">
-        <v>9.1663</v>
-      </c>
-      <c r="J45" t="n">
-        <v>2.5241</v>
-      </c>
-      <c r="K45" t="n">
-        <v>8.3635</v>
-      </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>8.330400000000001</v>
-      </c>
-      <c r="N45" t="n">
-        <v>8.1363</v>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="n">
+        <v>3.1045</v>
+      </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="n">
+        <v>5.9216</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2.6942</v>
+      </c>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="n">
+        <v>4.457</v>
+      </c>
+      <c r="X45" t="n">
+        <v>2.9749</v>
+      </c>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="n">
+        <v>9.1663</v>
+      </c>
+      <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr"/>
+      <c r="AE45" t="inlineStr"/>
+      <c r="AF45" t="inlineStr"/>
+      <c r="AG45" t="n">
+        <v>2.5241</v>
+      </c>
+      <c r="AH45" t="inlineStr"/>
+      <c r="AI45" t="inlineStr"/>
+      <c r="AJ45" t="n">
+        <v>3.2195</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>8.3635</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>2.5351</v>
+      </c>
+      <c r="AM45" t="inlineStr"/>
+      <c r="AN45" t="inlineStr"/>
+      <c r="AO45" t="n">
+        <v>2.6503</v>
+      </c>
+      <c r="AP45" t="inlineStr"/>
+      <c r="AQ45" t="n">
+        <v>8.330400000000001</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>8.1363</v>
+      </c>
+      <c r="AS45" t="inlineStr"/>
+      <c r="AT45" t="n">
+        <v>2.8803</v>
+      </c>
+      <c r="AU45" t="inlineStr"/>
+      <c r="AV45" t="n">
+        <v>2.9663</v>
+      </c>
+      <c r="AW45" t="inlineStr"/>
+      <c r="AX45" t="n">
+        <v>2.3506</v>
+      </c>
+      <c r="AY45" t="n">
         <v>5.7225</v>
       </c>
-      <c r="Q45" t="inlineStr"/>
+      <c r="AZ45" t="inlineStr"/>
+      <c r="BA45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>3.4982</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2.8358</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>3.419</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="n">
+        <v>2.7118</v>
+      </c>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="n">
+        <v>2.9941</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2.6374</v>
+      </c>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="n">
+        <v>2.9913</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>2.9469</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>2.5039</v>
+      </c>
+      <c r="AG46" t="inlineStr"/>
+      <c r="AH46" t="n">
+        <v>3.5761</v>
+      </c>
+      <c r="AI46" t="inlineStr"/>
+      <c r="AJ46" t="inlineStr"/>
+      <c r="AK46" t="inlineStr"/>
+      <c r="AL46" t="inlineStr"/>
+      <c r="AM46" t="inlineStr"/>
+      <c r="AN46" t="inlineStr"/>
+      <c r="AO46" t="inlineStr"/>
+      <c r="AP46" t="inlineStr"/>
+      <c r="AQ46" t="inlineStr"/>
+      <c r="AR46" t="inlineStr"/>
+      <c r="AS46" t="inlineStr"/>
+      <c r="AT46" t="inlineStr"/>
+      <c r="AU46" t="inlineStr"/>
+      <c r="AV46" t="inlineStr"/>
+      <c r="AW46" t="inlineStr"/>
+      <c r="AX46" t="n">
+        <v>3.4847</v>
+      </c>
+      <c r="AY46" t="inlineStr"/>
+      <c r="AZ46" t="inlineStr"/>
+      <c r="BA46" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_analyzed/miles_per_week/miles_per_week_trainings.xlsx
+++ b/data_analyzed/miles_per_week/miles_per_week_trainings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,35 +525,35 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.6277</v>
+        <v>3.7582</v>
       </c>
       <c r="C2" t="n">
-        <v>6.5611</v>
+        <v>3.8795</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>6.116300000000001</v>
+        <v>3.7065</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>6.618600000000001</v>
+        <v>3.7587</v>
       </c>
       <c r="K2" t="n">
-        <v>6.4816</v>
+        <v>3.3163</v>
       </c>
       <c r="L2" t="n">
-        <v>6.0694</v>
+        <v>3.5005</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>5.681</v>
+        <v>3.2488</v>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="n">
-        <v>6.213200000000001</v>
+        <v>3.4278</v>
       </c>
       <c r="Q2" t="inlineStr"/>
     </row>
@@ -562,35 +562,35 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.3827</v>
+        <v>3.5663</v>
       </c>
       <c r="C3" t="n">
-        <v>8.5246</v>
+        <v>3.1044</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>8.235099999999999</v>
+        <v>3.3175</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>10.2898</v>
+        <v>3.3788</v>
       </c>
       <c r="K3" t="n">
-        <v>9.696899999999999</v>
+        <v>3.3257</v>
       </c>
       <c r="L3" t="n">
-        <v>8.363099999999999</v>
+        <v>2.7305</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>10.0582</v>
+        <v>3.6721</v>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>9.362400000000001</v>
+        <v>3.5222</v>
       </c>
       <c r="Q3" t="inlineStr"/>
     </row>
@@ -599,35 +599,35 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.1651</v>
+        <v>7.6139</v>
       </c>
       <c r="C4" t="n">
-        <v>9.893799999999999</v>
+        <v>7.27</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>7.380599999999999</v>
+        <v>4.1034</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>11.4817</v>
+        <v>7.8668</v>
       </c>
       <c r="K4" t="n">
-        <v>11.9551</v>
+        <v>8.0421</v>
       </c>
       <c r="L4" t="n">
-        <v>9.1889</v>
+        <v>6.3133</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>10.477</v>
+        <v>7.321899999999999</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>10.21</v>
+        <v>7.2009</v>
       </c>
       <c r="Q4" t="inlineStr"/>
     </row>
@@ -636,7 +636,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.8846</v>
+        <v>7.1892</v>
       </c>
       <c r="C5" t="n">
         <v>4.7793</v>
@@ -644,27 +644,27 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>9.403499999999999</v>
+        <v>5.112699999999999</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>10.0418</v>
+        <v>5.7871</v>
       </c>
       <c r="K5" t="n">
-        <v>13.2265</v>
+        <v>7.747</v>
       </c>
       <c r="L5" t="n">
-        <v>12.0796</v>
+        <v>7.434100000000001</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>12.4831</v>
+        <v>7.795599999999999</v>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>12.8492</v>
+        <v>8.323499999999999</v>
       </c>
       <c r="Q5" t="inlineStr"/>
     </row>
@@ -673,33 +673,33 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.6548</v>
+        <v>6.1069</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>6.7017</v>
+        <v>3.623</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>10.8422</v>
+        <v>6.6072</v>
       </c>
       <c r="K6" t="n">
-        <v>10.5087</v>
+        <v>6.1121</v>
       </c>
       <c r="L6" t="n">
-        <v>6.1813</v>
+        <v>2.7973</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>9.703900000000001</v>
+        <v>5.9849</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>9.6472</v>
+        <v>6.1769</v>
       </c>
       <c r="Q6" t="inlineStr"/>
     </row>
@@ -710,33 +710,31 @@
       <c r="B7" t="n">
         <v>6.8598</v>
       </c>
-      <c r="C7" t="n">
-        <v>1.7127</v>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>7.9567</v>
+        <v>5.7874</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>8.7271</v>
+        <v>6.5351</v>
       </c>
       <c r="K7" t="n">
-        <v>9.551500000000001</v>
+        <v>7.0129</v>
       </c>
       <c r="L7" t="n">
-        <v>8.4602</v>
+        <v>6.4257</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>9.4566</v>
+        <v>6.610200000000001</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>8.301</v>
+        <v>6.4728</v>
       </c>
       <c r="Q7" t="inlineStr"/>
     </row>
@@ -745,35 +743,33 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>6.7397</v>
+        <v>3.3197</v>
       </c>
       <c r="C8" t="n">
-        <v>6.1813</v>
+        <v>3.2686</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>3.8169</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>7.8036</v>
+        <v>3.5042</v>
       </c>
       <c r="K8" t="n">
-        <v>7.3208</v>
+        <v>3.4011</v>
       </c>
       <c r="L8" t="n">
-        <v>6.307700000000001</v>
+        <v>3.0565</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>6.7156</v>
+        <v>2.9776</v>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>6.5266</v>
+        <v>3.1979</v>
       </c>
       <c r="Q8" t="inlineStr"/>
     </row>
@@ -782,35 +778,35 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>9.957000000000001</v>
+        <v>5.3954</v>
       </c>
       <c r="C9" t="n">
-        <v>9.327199999999999</v>
+        <v>5.973800000000001</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>11.2333</v>
+        <v>5.9191</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>10.0753</v>
+        <v>5.405799999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>10.8064</v>
+        <v>5.7683</v>
       </c>
       <c r="L9" t="n">
-        <v>8.1808</v>
+        <v>4.701</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>10.9587</v>
+        <v>5.5817</v>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>8.613</v>
+        <v>4.4862</v>
       </c>
       <c r="Q9" t="inlineStr"/>
     </row>
@@ -819,35 +815,35 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.233</v>
+        <v>10.3142</v>
       </c>
       <c r="C10" t="n">
-        <v>11.2458</v>
+        <v>9.9771</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>11.2337</v>
+        <v>9.5053</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>12.6542</v>
+        <v>10.3542</v>
       </c>
       <c r="K10" t="n">
-        <v>11.8538</v>
+        <v>9.710899999999999</v>
       </c>
       <c r="L10" t="n">
-        <v>10.827</v>
+        <v>9.133100000000001</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>12.2913</v>
+        <v>10.2361</v>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>10.814</v>
+        <v>9.272</v>
       </c>
       <c r="Q10" t="inlineStr"/>
     </row>
@@ -856,35 +852,35 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9.158000000000001</v>
+        <v>6.7728</v>
       </c>
       <c r="C11" t="n">
-        <v>8.1303</v>
+        <v>6.0885</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>5.934</v>
+        <v>3.6562</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>9.473600000000001</v>
+        <v>7.2271</v>
       </c>
       <c r="K11" t="n">
-        <v>9.065899999999999</v>
+        <v>7.3139</v>
       </c>
       <c r="L11" t="n">
-        <v>6.849</v>
+        <v>4.9886</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>8.1996</v>
+        <v>5.932399999999999</v>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>8.7615</v>
+        <v>6.5667</v>
       </c>
       <c r="Q11" t="inlineStr"/>
     </row>
@@ -1115,7 +1111,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>10.4764</v>
+        <v>7.4009</v>
       </c>
       <c r="C18" t="n">
         <v>8.626200000000001</v>
@@ -1123,27 +1119,27 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>12.0708</v>
+        <v>8.4116</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>10.2871</v>
+        <v>8.0951</v>
       </c>
       <c r="K18" t="n">
-        <v>7.8617</v>
+        <v>4.6622</v>
       </c>
       <c r="L18" t="n">
-        <v>9.690300000000001</v>
+        <v>6.902900000000001</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>9.4094</v>
+        <v>7.6241</v>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
-        <v>9.8329</v>
+        <v>7.1071</v>
       </c>
       <c r="Q18" t="inlineStr"/>
     </row>
@@ -1155,21 +1151,21 @@
         <v>6.7228</v>
       </c>
       <c r="C19" t="n">
-        <v>9.863300000000001</v>
+        <v>6.4816</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>9.5867</v>
+        <v>6.3167</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>7.3937</v>
+        <v>4.2397</v>
       </c>
       <c r="K19" t="n">
-        <v>8.038</v>
+        <v>7.0347</v>
       </c>
       <c r="L19" t="n">
         <v>6.488</v>
@@ -1180,7 +1176,7 @@
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
-        <v>9.7346</v>
+        <v>6.902200000000001</v>
       </c>
       <c r="Q19" t="inlineStr"/>
     </row>
@@ -1229,1114 +1225,967 @@
         <v>9.787800000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>4.5305</v>
+        <v>1.952</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>14.033</v>
+        <v>11.5543</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>11.8693</v>
+        <v>10.2097</v>
       </c>
       <c r="K21" t="n">
-        <v>15.701</v>
+        <v>12.8375</v>
       </c>
       <c r="L21" t="n">
-        <v>11.7104</v>
+        <v>9.533799999999999</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
-        <v>9.7852</v>
+        <v>7.8183</v>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>14.9666</v>
+        <v>12.4493</v>
       </c>
       <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>3.3713</v>
+        <v>5.6571</v>
       </c>
       <c r="C22" t="n">
-        <v>2.6366</v>
+        <v>5.2825</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>2.9967</v>
+        <v>7.2017</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>3.638</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.9867</v>
-      </c>
+        <v>6.653700000000001</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>2.0885</v>
+        <v>6.977499999999999</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="n">
-        <v>3.1183</v>
+        <v>6.0904</v>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>3.5361</v>
+        <v>7.643</v>
       </c>
       <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>5.6571</v>
+        <v>21.2431</v>
       </c>
       <c r="C23" t="n">
-        <v>5.2825</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+        <v>14.5435</v>
+      </c>
+      <c r="D23" t="n">
+        <v>12.7954</v>
+      </c>
+      <c r="E23" t="n">
+        <v>16.8684</v>
+      </c>
       <c r="F23" t="n">
-        <v>7.2017</v>
+        <v>17.8475</v>
       </c>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>11.3246</v>
+      </c>
+      <c r="I23" t="n">
+        <v>15.1121</v>
+      </c>
       <c r="J23" t="n">
-        <v>6.653700000000001</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
+        <v>21.7286</v>
+      </c>
+      <c r="K23" t="n">
+        <v>21.3568</v>
+      </c>
       <c r="L23" t="n">
-        <v>6.977499999999999</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>20.1451</v>
+      </c>
+      <c r="M23" t="n">
+        <v>18.6249</v>
+      </c>
       <c r="N23" t="n">
-        <v>6.0904</v>
-      </c>
-      <c r="O23" t="inlineStr"/>
+        <v>16.3741</v>
+      </c>
+      <c r="O23" t="n">
+        <v>6.7934</v>
+      </c>
       <c r="P23" t="n">
-        <v>7.643</v>
+        <v>17.5267</v>
       </c>
       <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>21.2431</v>
+        <v>6.9436</v>
       </c>
       <c r="C24" t="n">
-        <v>14.5435</v>
+        <v>7.5448</v>
       </c>
       <c r="D24" t="n">
-        <v>12.7954</v>
+        <v>6.8777</v>
       </c>
       <c r="E24" t="n">
-        <v>16.8684</v>
+        <v>6.0342</v>
       </c>
       <c r="F24" t="n">
-        <v>17.8475</v>
+        <v>7.7069</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>11.3246</v>
+        <v>6.731</v>
       </c>
       <c r="I24" t="n">
-        <v>15.1121</v>
+        <v>7.496</v>
       </c>
       <c r="J24" t="n">
-        <v>21.7286</v>
+        <v>6.9848</v>
       </c>
       <c r="K24" t="n">
-        <v>21.3568</v>
+        <v>6.8488</v>
       </c>
       <c r="L24" t="n">
-        <v>20.1451</v>
+        <v>6.2555</v>
       </c>
       <c r="M24" t="n">
-        <v>18.6249</v>
+        <v>7.1295</v>
       </c>
       <c r="N24" t="n">
-        <v>16.3741</v>
+        <v>7.2247</v>
       </c>
       <c r="O24" t="n">
-        <v>6.7934</v>
+        <v>7.560499999999999</v>
       </c>
       <c r="P24" t="n">
-        <v>17.5267</v>
+        <v>6.6556</v>
       </c>
       <c r="Q24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" t="n">
-        <v>12.0806</v>
+        <v>6.1825</v>
       </c>
       <c r="C25" t="n">
-        <v>12.9216</v>
+        <v>4.8454</v>
       </c>
       <c r="D25" t="n">
-        <v>11.853</v>
+        <v>6.9148</v>
       </c>
       <c r="E25" t="n">
-        <v>11.0376</v>
+        <v>6.4972</v>
       </c>
       <c r="F25" t="n">
-        <v>13.039</v>
+        <v>2.6905</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>12.008</v>
+        <v>6.57</v>
       </c>
       <c r="I25" t="n">
-        <v>9.128</v>
+        <v>5.8829</v>
       </c>
       <c r="J25" t="n">
-        <v>12.6307</v>
+        <v>7.745900000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>10.1372</v>
+        <v>6.7015</v>
       </c>
       <c r="L25" t="n">
-        <v>11.0251</v>
+        <v>6.5838</v>
       </c>
       <c r="M25" t="n">
-        <v>12.5869</v>
+        <v>2.6175</v>
       </c>
       <c r="N25" t="n">
-        <v>12.3546</v>
+        <v>6.704499999999999</v>
       </c>
       <c r="O25" t="n">
-        <v>13.5582</v>
+        <v>5.6435</v>
       </c>
       <c r="P25" t="n">
-        <v>11.7352</v>
+        <v>6.997300000000001</v>
       </c>
       <c r="Q25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n">
-        <v>1.6576</v>
+        <v>1.5335</v>
       </c>
       <c r="C26" t="n">
-        <v>3.7509</v>
+        <v>3.6172</v>
       </c>
       <c r="D26" t="n">
-        <v>3.7856</v>
+        <v>5.9338</v>
       </c>
       <c r="E26" t="n">
-        <v>1.8333</v>
-      </c>
-      <c r="F26" t="n">
-        <v>3.6387</v>
-      </c>
+        <v>5.785600000000001</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>3.3849</v>
+        <v>3.0077</v>
       </c>
       <c r="I26" t="n">
-        <v>4.338200000000001</v>
+        <v>6.3291</v>
       </c>
       <c r="J26" t="n">
-        <v>3.6105</v>
+        <v>6.947699999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>3.5479</v>
+        <v>6.2102</v>
       </c>
       <c r="L26" t="n">
-        <v>3.4114</v>
+        <v>5.8288</v>
       </c>
       <c r="M26" t="n">
-        <v>3.4006</v>
+        <v>6.3337</v>
       </c>
       <c r="N26" t="n">
-        <v>3.2909</v>
+        <v>5.625999999999999</v>
       </c>
       <c r="O26" t="n">
-        <v>4.0578</v>
+        <v>6.5784</v>
       </c>
       <c r="P26" t="n">
-        <v>1.8235</v>
+        <v>6.0707</v>
       </c>
       <c r="Q26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" t="n">
-        <v>6.1825</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>8.965399999999999</v>
+        <v>3.3118</v>
       </c>
       <c r="D27" t="n">
-        <v>10.6119</v>
+        <v>6.1214</v>
       </c>
       <c r="E27" t="n">
-        <v>10.0653</v>
-      </c>
-      <c r="F27" t="n">
-        <v>4.5833</v>
-      </c>
+        <v>6.257</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>10.4266</v>
+        <v>6.3794</v>
       </c>
       <c r="I27" t="n">
-        <v>10.002</v>
+        <v>3.1383</v>
       </c>
       <c r="J27" t="n">
-        <v>11.9429</v>
+        <v>6.725099999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>10.4876</v>
+        <v>6.565</v>
       </c>
       <c r="L27" t="n">
-        <v>10.1842</v>
+        <v>5.7447</v>
       </c>
       <c r="M27" t="n">
-        <v>6.6927</v>
+        <v>6.6223</v>
       </c>
       <c r="N27" t="n">
-        <v>8.734999999999999</v>
+        <v>5.4694</v>
       </c>
       <c r="O27" t="n">
-        <v>7.8514</v>
+        <v>3.2289</v>
       </c>
       <c r="P27" t="n">
-        <v>10.9081</v>
+        <v>5.942399999999999</v>
       </c>
       <c r="Q27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" t="n">
-        <v>4.0779</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>2.1774</v>
+        <v>4.1613</v>
       </c>
       <c r="D28" t="n">
-        <v>3.588</v>
+        <v>9.215999999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>4.1997</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2.1212</v>
-      </c>
+        <v>8.6456</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>5.164400000000001</v>
+        <v>9.481400000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>3.8843</v>
+        <v>9.849500000000001</v>
       </c>
       <c r="J28" t="n">
-        <v>4.3994</v>
+        <v>6.4296</v>
       </c>
       <c r="K28" t="n">
-        <v>3.6709</v>
+        <v>5.564500000000001</v>
       </c>
       <c r="L28" t="n">
-        <v>3.8888</v>
+        <v>9.347300000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>3.661</v>
+        <v>8.8347</v>
       </c>
       <c r="N28" t="n">
-        <v>4.0933</v>
-      </c>
-      <c r="O28" t="n">
-        <v>2.1976</v>
-      </c>
+        <v>6.9871</v>
+      </c>
+      <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>3.1758</v>
+        <v>9.7338</v>
       </c>
       <c r="Q28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" t="n">
-        <v>1.5335</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>5.1014</v>
+        <v>1.4298</v>
       </c>
       <c r="D29" t="n">
-        <v>7.0844</v>
+        <v>6.3137</v>
       </c>
       <c r="E29" t="n">
-        <v>7.0423</v>
-      </c>
-      <c r="F29" t="inlineStr"/>
+        <v>3.4386</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.4569</v>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>4.7334</v>
+        <v>5.1229</v>
       </c>
       <c r="I29" t="n">
-        <v>7.8772</v>
+        <v>6.5716</v>
       </c>
       <c r="J29" t="n">
-        <v>8.741899999999999</v>
+        <v>5.1959</v>
       </c>
       <c r="K29" t="n">
-        <v>7.6981</v>
+        <v>3.1681</v>
       </c>
       <c r="L29" t="n">
-        <v>7.2921</v>
+        <v>5.8489</v>
       </c>
       <c r="M29" t="n">
-        <v>7.808</v>
+        <v>6.5661</v>
       </c>
       <c r="N29" t="n">
-        <v>7.1304</v>
+        <v>6.4596</v>
       </c>
       <c r="O29" t="n">
-        <v>8.144600000000001</v>
+        <v>6.8005</v>
       </c>
       <c r="P29" t="n">
-        <v>7.4332</v>
+        <v>6.0558</v>
       </c>
       <c r="Q29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>3.3118</v>
+        <v>0.2618</v>
       </c>
       <c r="D30" t="n">
-        <v>6.1214</v>
+        <v>5.9213</v>
       </c>
       <c r="E30" t="n">
-        <v>6.9924</v>
+        <v>4.8154</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>7.7481</v>
+        <v>5.8475</v>
       </c>
       <c r="I30" t="n">
-        <v>4.1722</v>
+        <v>3.3442</v>
       </c>
       <c r="J30" t="n">
-        <v>6.725099999999999</v>
+        <v>6.4445</v>
       </c>
       <c r="K30" t="n">
-        <v>7.7148</v>
+        <v>5.7999</v>
       </c>
       <c r="L30" t="n">
-        <v>6.8086</v>
+        <v>5.666</v>
       </c>
       <c r="M30" t="n">
-        <v>8.424799999999999</v>
+        <v>5.426399999999999</v>
       </c>
       <c r="N30" t="n">
-        <v>6.7563</v>
+        <v>5.0367</v>
       </c>
       <c r="O30" t="n">
-        <v>4.510899999999999</v>
+        <v>3.5148</v>
       </c>
       <c r="P30" t="n">
-        <v>7.057799999999999</v>
+        <v>3.4956</v>
       </c>
       <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>5.9687</v>
+        <v>2.647</v>
       </c>
       <c r="D31" t="n">
-        <v>9.215999999999999</v>
+        <v>5.8807</v>
       </c>
       <c r="E31" t="n">
-        <v>8.6456</v>
+        <v>5.0661</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>12.2296</v>
+        <v>2.5696</v>
       </c>
       <c r="I31" t="n">
-        <v>9.849500000000001</v>
+        <v>3.2345</v>
       </c>
       <c r="J31" t="n">
-        <v>9.553000000000001</v>
+        <v>3.3494</v>
       </c>
       <c r="K31" t="n">
-        <v>7.8735</v>
+        <v>2.94</v>
       </c>
       <c r="L31" t="n">
-        <v>11.3668</v>
+        <v>5.5901</v>
       </c>
       <c r="M31" t="n">
-        <v>11.8207</v>
+        <v>6.5366</v>
       </c>
       <c r="N31" t="n">
-        <v>6.9871</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
+        <v>5.5159</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2.6017</v>
+      </c>
       <c r="P31" t="n">
-        <v>12.0803</v>
+        <v>2.872</v>
       </c>
       <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="n">
-        <v>2.4081</v>
-      </c>
-      <c r="D32" t="n">
-        <v>7.8803</v>
-      </c>
+        <v>3.3104</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>4.4528</v>
-      </c>
-      <c r="F32" t="n">
-        <v>2.4569</v>
-      </c>
+        <v>2.1475</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>6.5992</v>
-      </c>
-      <c r="I32" t="n">
-        <v>6.5716</v>
-      </c>
+        <v>3.2206</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>6.6159</v>
+        <v>3.1907</v>
       </c>
       <c r="K32" t="n">
-        <v>4.3278</v>
+        <v>3.2746</v>
       </c>
       <c r="L32" t="n">
-        <v>6.8761</v>
+        <v>2.3402</v>
       </c>
       <c r="M32" t="n">
-        <v>8.1112</v>
+        <v>2.8464</v>
       </c>
       <c r="N32" t="n">
-        <v>7.8119</v>
+        <v>2.3414</v>
       </c>
       <c r="O32" t="n">
-        <v>8.6791</v>
+        <v>1.7994</v>
       </c>
       <c r="P32" t="n">
-        <v>7.3314</v>
+        <v>2.8468</v>
       </c>
       <c r="Q32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
-        <v>2.1128</v>
+        <v>1.826</v>
       </c>
       <c r="D33" t="n">
-        <v>5.9213</v>
+        <v>1.8501</v>
       </c>
       <c r="E33" t="n">
-        <v>4.8154</v>
+        <v>1.8042</v>
       </c>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>1.8007</v>
+      </c>
       <c r="H33" t="n">
-        <v>7.6144</v>
+        <v>1.5267</v>
       </c>
       <c r="I33" t="n">
-        <v>3.3442</v>
-      </c>
-      <c r="J33" t="n">
-        <v>8.286300000000001</v>
-      </c>
+        <v>1.8261</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>7.3835</v>
-      </c>
-      <c r="L33" t="n">
-        <v>7.1689</v>
-      </c>
+        <v>1.9002</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>7.0886</v>
+        <v>1.9896</v>
       </c>
       <c r="N33" t="n">
-        <v>5.8085</v>
-      </c>
-      <c r="O33" t="n">
-        <v>3.5148</v>
-      </c>
+        <v>1.9638</v>
+      </c>
+      <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>5.0606</v>
+        <v>1.9028</v>
       </c>
       <c r="Q33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="n">
-        <v>4.4653</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2.7921</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>8.744199999999999</v>
+        <v>1.0871</v>
       </c>
       <c r="E34" t="n">
-        <v>7.6088</v>
-      </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+        <v>2.9433</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.4212</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3.4064</v>
+      </c>
       <c r="H34" t="n">
-        <v>5.5847</v>
+        <v>3.614</v>
       </c>
       <c r="I34" t="n">
-        <v>5.109500000000001</v>
+        <v>2.9042</v>
       </c>
       <c r="J34" t="n">
-        <v>6.8035</v>
+        <v>1.8521</v>
       </c>
       <c r="K34" t="n">
-        <v>5.3063</v>
-      </c>
-      <c r="L34" t="n">
-        <v>8.122299999999999</v>
-      </c>
+        <v>1.1571</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>9.7158</v>
+        <v>2.9224</v>
       </c>
       <c r="N34" t="n">
-        <v>8.146100000000001</v>
-      </c>
-      <c r="O34" t="n">
-        <v>5.9875</v>
-      </c>
+        <v>2.4038</v>
+      </c>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
-        <v>5.9852</v>
+        <v>2.8576</v>
       </c>
       <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="n">
-        <v>3.3104</v>
-      </c>
-      <c r="D35" t="n">
-        <v>3.0105</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1.6325</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>3.0726</v>
-      </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+        <v>1.8522</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.9702</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2.1907</v>
+      </c>
       <c r="H35" t="n">
-        <v>5.756600000000001</v>
-      </c>
-      <c r="I35" t="n">
-        <v>2.6708</v>
-      </c>
+        <v>1.9505</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>6.2165</v>
+        <v>1.8689</v>
       </c>
       <c r="K35" t="n">
-        <v>6.6012</v>
-      </c>
-      <c r="L35" t="n">
-        <v>3.8489</v>
-      </c>
-      <c r="M35" t="n">
-        <v>5.7832</v>
-      </c>
+        <v>1.7599</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
-        <v>4.4687</v>
-      </c>
-      <c r="O35" t="n">
-        <v>4.2116</v>
-      </c>
+        <v>0.9257</v>
+      </c>
+      <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>5.7927</v>
-      </c>
-      <c r="Q35" t="inlineStr"/>
+        <v>1.9133</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.4229</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="n">
-        <v>1.826</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3.0727</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>1.8501</v>
+        <v>5.7737</v>
       </c>
       <c r="E36" t="n">
-        <v>1.8042</v>
-      </c>
-      <c r="F36" t="inlineStr"/>
+        <v>9.9191</v>
+      </c>
+      <c r="F36" t="n">
+        <v>8.106</v>
+      </c>
       <c r="G36" t="n">
-        <v>1.8007</v>
+        <v>10.3844</v>
       </c>
       <c r="H36" t="n">
-        <v>1.5267</v>
+        <v>10.1696</v>
       </c>
       <c r="I36" t="n">
-        <v>1.8261</v>
+        <v>6.411</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>1.9002</v>
+        <v>8.5921</v>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>1.9896</v>
+        <v>2.0468</v>
       </c>
       <c r="N36" t="n">
-        <v>1.9638</v>
+        <v>7.4884</v>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>1.9028</v>
+        <v>10.8204</v>
       </c>
       <c r="Q36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n">
-        <v>2.7921</v>
+        <v>1.4923</v>
       </c>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="n">
-        <v>1.0871</v>
-      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>2.9433</v>
+        <v>11.8026</v>
       </c>
       <c r="F37" t="n">
-        <v>1.4212</v>
+        <v>9.517300000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>3.4064</v>
+        <v>3.7888</v>
       </c>
       <c r="H37" t="n">
-        <v>3.614</v>
+        <v>11.625</v>
       </c>
       <c r="I37" t="n">
-        <v>2.9042</v>
+        <v>8.468299999999999</v>
       </c>
       <c r="J37" t="n">
-        <v>1.8521</v>
+        <v>10.5395</v>
       </c>
       <c r="K37" t="n">
-        <v>1.1571</v>
+        <v>12.1437</v>
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>2.9224</v>
+        <v>11.4998</v>
       </c>
       <c r="N37" t="n">
-        <v>2.4038</v>
+        <v>11.5394</v>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>2.8576</v>
-      </c>
-      <c r="Q37" t="inlineStr"/>
+        <v>12.4039</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.3001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n">
-        <v>1.6325</v>
+        <v>4.9203</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
-        <v>1.8522</v>
+        <v>10.9441</v>
       </c>
       <c r="F38" t="n">
-        <v>1.9702</v>
+        <v>9.5543</v>
       </c>
       <c r="G38" t="n">
-        <v>2.1907</v>
+        <v>9.555400000000001</v>
       </c>
       <c r="H38" t="n">
-        <v>1.9505</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>10.9716</v>
+      </c>
+      <c r="I38" t="n">
+        <v>11.9156</v>
+      </c>
       <c r="J38" t="n">
-        <v>1.8689</v>
+        <v>11.7135</v>
       </c>
       <c r="K38" t="n">
-        <v>1.7599</v>
+        <v>11.4638</v>
       </c>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
+      <c r="M38" t="n">
+        <v>10.7726</v>
+      </c>
       <c r="N38" t="n">
-        <v>0.9257</v>
+        <v>8.2835</v>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
-        <v>1.9133</v>
+        <v>11.5569</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.4229</v>
+        <v>0.6256</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n">
-        <v>3.0727</v>
+        <v>4.79</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>5.7737</v>
+        <v>6.3949</v>
       </c>
       <c r="E39" t="n">
-        <v>9.9191</v>
+        <v>7.9427</v>
       </c>
       <c r="F39" t="n">
-        <v>8.106</v>
+        <v>8.049799999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>10.3844</v>
+        <v>8.619900000000001</v>
       </c>
       <c r="H39" t="n">
-        <v>10.1696</v>
+        <v>7.9503</v>
       </c>
       <c r="I39" t="n">
-        <v>6.411</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
+        <v>7.7967</v>
+      </c>
+      <c r="J39" t="n">
+        <v>4.5571</v>
+      </c>
       <c r="K39" t="n">
-        <v>8.5921</v>
+        <v>6.8739</v>
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>2.0468</v>
+        <v>7.903</v>
       </c>
       <c r="N39" t="n">
-        <v>7.4884</v>
+        <v>7.81</v>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="n">
-        <v>10.8204</v>
-      </c>
-      <c r="Q39" t="inlineStr"/>
+        <v>7.000999999999999</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.7969</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B40" t="n">
-        <v>1.4923</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="n">
+        <v>5.317299999999999</v>
+      </c>
       <c r="E40" t="n">
-        <v>11.8026</v>
+        <v>5.4341</v>
       </c>
       <c r="F40" t="n">
-        <v>9.517300000000001</v>
+        <v>5.7758</v>
       </c>
       <c r="G40" t="n">
-        <v>3.7888</v>
+        <v>5.6318</v>
       </c>
       <c r="H40" t="n">
-        <v>11.625</v>
+        <v>3.1678</v>
       </c>
       <c r="I40" t="n">
-        <v>8.468299999999999</v>
+        <v>4.9925</v>
       </c>
       <c r="J40" t="n">
-        <v>10.5395</v>
+        <v>4.1117</v>
       </c>
       <c r="K40" t="n">
-        <v>12.1437</v>
+        <v>4.5935</v>
       </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>11.4998</v>
+        <v>5.484</v>
       </c>
       <c r="N40" t="n">
-        <v>11.5394</v>
+        <v>2.2052</v>
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="n">
-        <v>12.4039</v>
+        <v>4.846200000000001</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.3001</v>
+        <v>2.4681</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n">
-        <v>4.9203</v>
+        <v>3.8011</v>
       </c>
       <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>3.8619</v>
+      </c>
       <c r="E41" t="n">
-        <v>10.9441</v>
+        <v>4.077999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>9.5543</v>
+        <v>4.0891</v>
       </c>
       <c r="G41" t="n">
-        <v>9.555400000000001</v>
+        <v>2.337</v>
       </c>
       <c r="H41" t="n">
-        <v>10.9716</v>
+        <v>3.9498</v>
       </c>
       <c r="I41" t="n">
-        <v>11.9156</v>
+        <v>4.3924</v>
       </c>
       <c r="J41" t="n">
-        <v>11.7135</v>
+        <v>2.3172</v>
       </c>
       <c r="K41" t="n">
-        <v>11.4638</v>
+        <v>3.8233</v>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>10.7726</v>
+        <v>4.044</v>
       </c>
       <c r="N41" t="n">
-        <v>8.2835</v>
+        <v>4.0784</v>
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="n">
-        <v>11.5569</v>
+        <v>2.9391</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.6256</v>
+        <v>1.6181</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n">
-        <v>7.3267</v>
+        <v>5.1271</v>
       </c>
       <c r="C42" t="inlineStr"/>
-      <c r="D42" t="n">
-        <v>8.794599999999999</v>
-      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
-        <v>10.5855</v>
+        <v>3.8154</v>
       </c>
       <c r="F42" t="n">
-        <v>11.2359</v>
-      </c>
-      <c r="G42" t="n">
-        <v>11.0391</v>
-      </c>
+        <v>3.5331</v>
+      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>10.743</v>
+        <v>2.1283</v>
       </c>
       <c r="I42" t="n">
-        <v>7.7967</v>
-      </c>
-      <c r="J42" t="n">
-        <v>7.5759</v>
-      </c>
+        <v>6.5983</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>9.666599999999999</v>
+        <v>6.0048</v>
       </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>10.511</v>
+        <v>5.7479</v>
       </c>
       <c r="N42" t="n">
-        <v>10.7876</v>
-      </c>
-      <c r="O42" t="n">
-        <v>3.0486</v>
-      </c>
+        <v>5.9751</v>
+      </c>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="n">
-        <v>10.0593</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1.7969</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B43" t="n">
-        <v>3.4732</v>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="n">
-        <v>8.7242</v>
-      </c>
-      <c r="E43" t="n">
-        <v>8.5419</v>
-      </c>
-      <c r="F43" t="n">
-        <v>5.7758</v>
-      </c>
-      <c r="G43" t="n">
-        <v>8.681900000000001</v>
-      </c>
-      <c r="H43" t="n">
-        <v>6.5959</v>
-      </c>
-      <c r="I43" t="n">
-        <v>8.052299999999999</v>
-      </c>
-      <c r="J43" t="n">
-        <v>8.212</v>
-      </c>
-      <c r="K43" t="n">
-        <v>7.9528</v>
-      </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>8.7285</v>
-      </c>
-      <c r="N43" t="n">
-        <v>5.735300000000001</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="n">
-        <v>7.498</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>2.4681</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B44" t="n">
-        <v>6.6319</v>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="n">
-        <v>4.8398</v>
-      </c>
-      <c r="E44" t="n">
-        <v>7.891299999999999</v>
-      </c>
-      <c r="F44" t="n">
-        <v>5.0509</v>
-      </c>
-      <c r="G44" t="n">
-        <v>2.337</v>
-      </c>
-      <c r="H44" t="n">
-        <v>7.7536</v>
-      </c>
-      <c r="I44" t="n">
-        <v>8.368399999999999</v>
-      </c>
-      <c r="J44" t="n">
-        <v>5.5598</v>
-      </c>
-      <c r="K44" t="n">
-        <v>7.338200000000001</v>
-      </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>8.489599999999999</v>
-      </c>
-      <c r="N44" t="n">
-        <v>7.8899</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="n">
-        <v>7.137099999999999</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>2.2872</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B45" t="n">
-        <v>6.9799</v>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="n">
-        <v>6.4797</v>
-      </c>
-      <c r="F45" t="n">
-        <v>5.9216</v>
-      </c>
-      <c r="G45" t="n">
-        <v>2.6942</v>
-      </c>
-      <c r="H45" t="n">
-        <v>4.457</v>
-      </c>
-      <c r="I45" t="n">
-        <v>9.1663</v>
-      </c>
-      <c r="J45" t="n">
-        <v>2.5241</v>
-      </c>
-      <c r="K45" t="n">
-        <v>8.3635</v>
-      </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>8.330400000000001</v>
-      </c>
-      <c r="N45" t="n">
-        <v>8.1363</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="n">
-        <v>5.7225</v>
-      </c>
-      <c r="Q45" t="inlineStr"/>
+        <v>4.0766</v>
+      </c>
+      <c r="Q42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
